--- a/documentation-generator/vocab_csv/dpv-pd.xlsx
+++ b/documentation-generator/vocab_csv/dpv-pd.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="749">
   <si>
     <t>Term</t>
   </si>
@@ -262,13 +262,13 @@
     <t>Harshvardhan Pandit</t>
   </si>
   <si>
-    <t>PseudoAnonymisedData</t>
-  </si>
-  <si>
-    <t>Pseudo-anonymised Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal Data that has undergone a partial (incomplete) anonymisation process such that it is still considered Personal Data </t>
+    <t>PseudonymisedData</t>
+  </si>
+  <si>
+    <t>Pseudonymised Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Data that has undergone a pseudonymisation process or a partial (incomplete) anonymisation process such that it is still considered Personal Data </t>
   </si>
   <si>
     <t>SensitivePersonalData</t>
@@ -1181,7 +1181,7 @@
     <t>Fetish</t>
   </si>
   <si>
-    <t>Information an individual's sexual fetishes</t>
+    <t>Information about an individual's sexual fetishes</t>
   </si>
   <si>
     <t>dpv-pd:Sexual</t>
@@ -1445,7 +1445,7 @@
     <t>IP Address</t>
   </si>
   <si>
-    <t>Information about the Internet protocol (IP) address of a device</t>
+    <t>Information about the Internet Protocol (IP) address of a device</t>
   </si>
   <si>
     <t>Job</t>
@@ -1493,6 +1493,9 @@
     <t>LinkClicked</t>
   </si>
   <si>
+    <t>Link Clicked</t>
+  </si>
+  <si>
     <t>Information about the links that an individual has clicked.</t>
   </si>
   <si>
@@ -1542,6 +1545,9 @@
   </si>
   <si>
     <t>MedicalHealth</t>
+  </si>
+  <si>
+    <t>Medical Health</t>
   </si>
   <si>
     <t>Information about health, medical conditions or health care</t>
@@ -1769,6 +1775,9 @@
     <t>PhysicalCharacteristic</t>
   </si>
   <si>
+    <t>Physical Characteristic</t>
+  </si>
+  <si>
     <t>Information about physical characteristics</t>
   </si>
   <si>
@@ -1913,7 +1922,10 @@
     <t>Individual Profile</t>
   </si>
   <si>
-    <t>Profile or user profile is information and representation of characteristics associated with a specific individual</t>
+    <t>Individual Profile or user profile is information and representation of characteristics associated with a specific individual</t>
+  </si>
+  <si>
+    <t>dpv-pd:Profile</t>
   </si>
   <si>
     <t>GroupProfile</t>
@@ -1922,7 +1934,7 @@
     <t>Group Profile</t>
   </si>
   <si>
-    <t>Profile or user profile is information and representation of characteristics associated with a group or category of individuals</t>
+    <t>Group Profile or category profile is information and representation of characteristics associated with a group or category of individuals</t>
   </si>
   <si>
     <t>PublicLife</t>
@@ -15243,11 +15255,11 @@
       <c r="A114" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="B114" s="16" t="s">
-        <v>461</v>
+      <c r="B114" s="11" t="s">
+        <v>462</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>136</v>
@@ -15257,7 +15269,7 @@
       </c>
       <c r="F114" s="12"/>
       <c r="G114" s="12" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
@@ -15293,13 +15305,13 @@
     </row>
     <row r="115">
       <c r="A115" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>210</v>
@@ -15343,13 +15355,13 @@
     </row>
     <row r="116">
       <c r="A116" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>204</v>
@@ -15359,7 +15371,7 @@
       </c>
       <c r="F116" s="12"/>
       <c r="G116" s="12" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
@@ -15395,13 +15407,13 @@
     </row>
     <row r="117">
       <c r="A117" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>169</v>
@@ -15445,13 +15457,13 @@
     </row>
     <row r="118">
       <c r="A118" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>192</v>
@@ -15495,13 +15507,13 @@
     </row>
     <row r="119">
       <c r="A119" s="10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>288</v>
@@ -15545,16 +15557,16 @@
     </row>
     <row r="120">
       <c r="A120" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>478</v>
+        <v>479</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>480</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E120" s="10" t="s">
         <v>19</v>
@@ -15595,16 +15607,16 @@
     </row>
     <row r="121">
       <c r="A121" s="10" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E121" s="10" t="s">
         <v>19</v>
@@ -15645,16 +15657,16 @@
     </row>
     <row r="122">
       <c r="A122" s="10" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E122" s="10" t="s">
         <v>19</v>
@@ -15695,13 +15707,13 @@
     </row>
     <row r="123">
       <c r="A123" s="10" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>150</v>
@@ -15741,23 +15753,23 @@
     </row>
     <row r="124">
       <c r="A124" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E124" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F124" s="12"/>
       <c r="G124" s="12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
@@ -15793,13 +15805,13 @@
     </row>
     <row r="125">
       <c r="A125" s="10" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C125" s="30" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>288</v>
@@ -15843,13 +15855,13 @@
     </row>
     <row r="126">
       <c r="A126" s="10" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>346</v>
@@ -15893,13 +15905,13 @@
     </row>
     <row r="127">
       <c r="A127" s="10" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>366</v>
@@ -15943,13 +15955,13 @@
     </row>
     <row r="128">
       <c r="A128" s="10" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C128" s="30" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>288</v>
@@ -15993,16 +16005,16 @@
     </row>
     <row r="129">
       <c r="A129" s="10" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E129" s="10" t="s">
         <v>19</v>
@@ -16041,16 +16053,16 @@
     </row>
     <row r="130">
       <c r="A130" s="10" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E130" s="10" t="s">
         <v>19</v>
@@ -16091,13 +16103,13 @@
     </row>
     <row r="131">
       <c r="A131" s="37" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B131" s="38" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C131" s="37" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D131" s="34" t="s">
         <v>112</v>
@@ -16110,7 +16122,7 @@
       <c r="H131" s="32"/>
       <c r="I131" s="32"/>
       <c r="J131" s="17" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="K131" s="33">
         <v>44139.0</v>
@@ -16141,16 +16153,16 @@
     </row>
     <row r="132">
       <c r="A132" s="37" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B132" s="38" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C132" s="34" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D132" s="34" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E132" s="10" t="s">
         <v>19</v>
@@ -16160,7 +16172,7 @@
       <c r="H132" s="32"/>
       <c r="I132" s="32"/>
       <c r="J132" s="17" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="K132" s="33">
         <v>44139.0</v>
@@ -16191,16 +16203,16 @@
     </row>
     <row r="133">
       <c r="A133" s="37" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B133" s="38" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D133" s="34" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E133" s="10" t="s">
         <v>19</v>
@@ -16210,7 +16222,7 @@
       <c r="H133" s="32"/>
       <c r="I133" s="32"/>
       <c r="J133" s="17" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K133" s="33">
         <v>44139.0</v>
@@ -16241,16 +16253,16 @@
     </row>
     <row r="134">
       <c r="A134" s="10" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E134" s="10" t="s">
         <v>19</v>
@@ -16289,13 +16301,13 @@
     </row>
     <row r="135">
       <c r="A135" s="10" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>150</v>
@@ -16337,13 +16349,13 @@
     </row>
     <row r="136">
       <c r="A136" s="10" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>136</v>
@@ -16387,13 +16399,13 @@
     </row>
     <row r="137">
       <c r="A137" s="10" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D137" s="10" t="s">
         <v>189</v>
@@ -16437,16 +16449,16 @@
     </row>
     <row r="138">
       <c r="A138" s="10" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E138" s="10" t="s">
         <v>19</v>
@@ -16487,13 +16499,13 @@
     </row>
     <row r="139">
       <c r="A139" s="10" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>307</v>
@@ -16537,13 +16549,13 @@
     </row>
     <row r="140">
       <c r="A140" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="B140" s="16" t="s">
-        <v>541</v>
+        <v>543</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>544</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>150</v>
@@ -16553,7 +16565,7 @@
       </c>
       <c r="F140" s="12"/>
       <c r="G140" s="12" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
@@ -16589,16 +16601,16 @@
     </row>
     <row r="141">
       <c r="A141" s="10" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E141" s="10" t="s">
         <v>19</v>
@@ -16639,13 +16651,13 @@
     </row>
     <row r="142">
       <c r="A142" s="10" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>390</v>
@@ -16689,16 +16701,16 @@
     </row>
     <row r="143">
       <c r="A143" s="10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E143" s="10" t="s">
         <v>19</v>
@@ -16739,13 +16751,13 @@
     </row>
     <row r="144">
       <c r="A144" s="10" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C144" s="29" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>118</v>
@@ -16789,16 +16801,16 @@
     </row>
     <row r="145">
       <c r="A145" s="10" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E145" s="10" t="s">
         <v>19</v>
@@ -16839,23 +16851,23 @@
     </row>
     <row r="146">
       <c r="A146" s="10" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E146" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F146" s="12"/>
       <c r="G146" s="12" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
@@ -16891,16 +16903,16 @@
     </row>
     <row r="147">
       <c r="A147" s="10" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B147" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="D147" s="10" t="s">
         <v>563</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>560</v>
       </c>
       <c r="E147" s="10" t="s">
         <v>19</v>
@@ -16939,13 +16951,13 @@
     </row>
     <row r="148">
       <c r="A148" s="10" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>139</v>
@@ -16955,7 +16967,7 @@
       </c>
       <c r="F148" s="12"/>
       <c r="G148" s="12" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
@@ -16991,13 +17003,13 @@
     </row>
     <row r="149">
       <c r="A149" s="10" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>165</v>
@@ -17041,13 +17053,13 @@
     </row>
     <row r="150">
       <c r="A150" s="10" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D150" s="10" t="s">
         <v>346</v>
@@ -17091,13 +17103,13 @@
     </row>
     <row r="151">
       <c r="A151" s="10" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D151" s="10" t="s">
         <v>359</v>
@@ -17141,13 +17153,13 @@
     </row>
     <row r="152">
       <c r="A152" s="10" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>195</v>
@@ -17191,13 +17203,13 @@
     </row>
     <row r="153">
       <c r="A153" s="10" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>282</v>
@@ -17241,13 +17253,13 @@
     </row>
     <row r="154">
       <c r="A154" s="10" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>282</v>
@@ -17291,13 +17303,13 @@
     </row>
     <row r="155">
       <c r="A155" s="10" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>282</v>
@@ -17341,13 +17353,13 @@
     </row>
     <row r="156">
       <c r="A156" s="10" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D156" s="10" t="s">
         <v>34</v>
@@ -17389,15 +17401,17 @@
     </row>
     <row r="157">
       <c r="A157" s="10" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="D157" s="10"/>
+        <v>593</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>594</v>
+      </c>
       <c r="E157" s="10" t="s">
         <v>19</v>
       </c>
@@ -17429,15 +17443,17 @@
     </row>
     <row r="158">
       <c r="A158" s="10" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="D158" s="10"/>
+        <v>597</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>594</v>
+      </c>
       <c r="E158" s="10" t="s">
         <v>19</v>
       </c>
@@ -17469,13 +17485,13 @@
     </row>
     <row r="159">
       <c r="A159" s="10" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>195</v>
@@ -17519,16 +17535,16 @@
     </row>
     <row r="160">
       <c r="A160" s="10" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="E160" s="10" t="s">
         <v>19</v>
@@ -17567,13 +17583,13 @@
     </row>
     <row r="161">
       <c r="A161" s="10" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>210</v>
@@ -17583,7 +17599,7 @@
       </c>
       <c r="F161" s="10"/>
       <c r="G161" s="10" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
@@ -17619,13 +17635,13 @@
     </row>
     <row r="162">
       <c r="A162" s="10" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>210</v>
@@ -17669,13 +17685,13 @@
     </row>
     <row r="163">
       <c r="A163" s="10" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>327</v>
@@ -17719,13 +17735,13 @@
     </row>
     <row r="164">
       <c r="A164" s="10" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>282</v>
@@ -17769,13 +17785,13 @@
     </row>
     <row r="165">
       <c r="A165" s="10" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D165" s="10" t="s">
         <v>343</v>
@@ -17819,13 +17835,13 @@
     </row>
     <row r="166">
       <c r="A166" s="10" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D166" s="10" t="s">
         <v>136</v>
@@ -17867,16 +17883,16 @@
     </row>
     <row r="167">
       <c r="A167" s="10" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="E167" s="10" t="s">
         <v>19</v>
@@ -17917,16 +17933,16 @@
     </row>
     <row r="168">
       <c r="A168" s="10" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E168" s="10" t="s">
         <v>19</v>
@@ -17967,13 +17983,13 @@
     </row>
     <row r="169">
       <c r="A169" s="10" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>333</v>
@@ -18017,13 +18033,13 @@
     </row>
     <row r="170">
       <c r="A170" s="10" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>161</v>
@@ -18067,13 +18083,13 @@
     </row>
     <row r="171">
       <c r="A171" s="10" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>282</v>
@@ -18117,13 +18133,13 @@
     </row>
     <row r="172">
       <c r="A172" s="10" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>210</v>
@@ -18167,13 +18183,13 @@
     </row>
     <row r="173">
       <c r="A173" s="10" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>282</v>
@@ -18217,16 +18233,16 @@
     </row>
     <row r="174">
       <c r="A174" s="10" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B174" s="16" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E174" s="10" t="s">
         <v>19</v>
@@ -18267,13 +18283,13 @@
     </row>
     <row r="175">
       <c r="A175" s="10" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D175" s="10" t="s">
         <v>136</v>
@@ -18286,7 +18302,7 @@
       <c r="H175" s="12"/>
       <c r="I175" s="12"/>
       <c r="J175" s="19" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K175" s="13">
         <v>43795.0</v>
@@ -18296,10 +18312,10 @@
         <v>21</v>
       </c>
       <c r="N175" s="10" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="O175" s="14" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="P175" s="12"/>
       <c r="Q175" s="12"/>
@@ -18317,16 +18333,16 @@
     </row>
     <row r="176">
       <c r="A176" s="10" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B176" s="16" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E176" s="10" t="s">
         <v>19</v>
@@ -18367,13 +18383,13 @@
     </row>
     <row r="177">
       <c r="A177" s="10" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>359</v>
@@ -18417,13 +18433,13 @@
     </row>
     <row r="178">
       <c r="A178" s="10" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>359</v>
@@ -18467,13 +18483,13 @@
     </row>
     <row r="179">
       <c r="A179" s="10" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C179" s="30" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>288</v>
@@ -18517,13 +18533,13 @@
     </row>
     <row r="180">
       <c r="A180" s="10" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>118</v>
@@ -18567,13 +18583,13 @@
     </row>
     <row r="181">
       <c r="A181" s="10" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="D181" s="10" t="s">
         <v>34</v>
@@ -18617,13 +18633,13 @@
     </row>
     <row r="182">
       <c r="A182" s="10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B182" s="16" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C182" s="30" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D182" s="10" t="s">
         <v>318</v>
@@ -18633,7 +18649,7 @@
       </c>
       <c r="F182" s="12"/>
       <c r="G182" s="12" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="H182" s="12"/>
       <c r="I182" s="12"/>
@@ -18669,13 +18685,13 @@
     </row>
     <row r="183">
       <c r="A183" s="10" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D183" s="10" t="s">
         <v>318</v>
@@ -18717,13 +18733,13 @@
     </row>
     <row r="184">
       <c r="A184" s="10" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B184" s="16" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="D184" s="10" t="s">
         <v>195</v>
@@ -18767,13 +18783,13 @@
     </row>
     <row r="185">
       <c r="A185" s="10" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D185" s="10" t="s">
         <v>192</v>
@@ -18817,13 +18833,13 @@
     </row>
     <row r="186">
       <c r="A186" s="10" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="D186" s="10" t="s">
         <v>118</v>
@@ -18867,13 +18883,13 @@
     </row>
     <row r="187">
       <c r="A187" s="10" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B187" s="16" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D187" s="10" t="s">
         <v>210</v>
@@ -18917,13 +18933,13 @@
     </row>
     <row r="188">
       <c r="A188" s="10" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="D188" s="10" t="s">
         <v>307</v>
@@ -18967,16 +18983,16 @@
     </row>
     <row r="189">
       <c r="A189" s="30" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B189" s="43" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C189" s="29" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="E189" s="10" t="s">
         <v>19</v>
@@ -19017,13 +19033,13 @@
     </row>
     <row r="190">
       <c r="A190" s="10" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B190" s="16" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D190" s="10" t="s">
         <v>34</v>
@@ -19067,16 +19083,16 @@
     </row>
     <row r="191">
       <c r="A191" s="10" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="E191" s="10" t="s">
         <v>19</v>
@@ -19115,13 +19131,13 @@
     </row>
     <row r="192">
       <c r="A192" s="10" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B192" s="26" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="D192" s="10" t="s">
         <v>210</v>
@@ -19165,13 +19181,13 @@
     </row>
     <row r="193">
       <c r="A193" s="10" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="D193" s="10" t="s">
         <v>366</v>
@@ -19215,13 +19231,13 @@
     </row>
     <row r="194">
       <c r="A194" s="10" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>161</v>
@@ -19263,16 +19279,16 @@
     </row>
     <row r="195">
       <c r="A195" s="10" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="E195" s="10" t="s">
         <v>19</v>
@@ -19282,7 +19298,7 @@
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
       <c r="J195" s="19" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="K195" s="13">
         <v>43795.0</v>
@@ -19292,10 +19308,10 @@
         <v>21</v>
       </c>
       <c r="N195" s="10" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="O195" s="14" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="P195" s="12"/>
       <c r="Q195" s="12"/>
@@ -19313,23 +19329,23 @@
     </row>
     <row r="196">
       <c r="A196" s="10" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B196" s="16" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E196" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F196" s="10"/>
       <c r="G196" s="10" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="H196" s="12"/>
       <c r="I196" s="12"/>
@@ -19365,13 +19381,13 @@
     </row>
     <row r="197">
       <c r="A197" s="10" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B197" s="25" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C197" s="44" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="D197" s="25" t="s">
         <v>204</v>
@@ -19413,16 +19429,16 @@
     </row>
     <row r="198">
       <c r="A198" s="10" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B198" s="16" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E198" s="10" t="s">
         <v>19</v>
@@ -19463,16 +19479,16 @@
     </row>
     <row r="199">
       <c r="A199" s="10" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="E199" s="10" t="s">
         <v>19</v>
@@ -19511,16 +19527,16 @@
     </row>
     <row r="200">
       <c r="A200" s="10" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="E200" s="10" t="s">
         <v>19</v>
@@ -19559,13 +19575,13 @@
     </row>
     <row r="201">
       <c r="A201" s="10" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="D201" s="10" t="s">
         <v>150</v>
@@ -19607,16 +19623,16 @@
     </row>
     <row r="202">
       <c r="A202" s="10" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="E202" s="10" t="s">
         <v>19</v>
@@ -19655,16 +19671,16 @@
     </row>
     <row r="203">
       <c r="A203" s="10" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="E203" s="10" t="s">
         <v>19</v>
@@ -19703,13 +19719,13 @@
     </row>
     <row r="204">
       <c r="A204" s="10" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C204" s="30" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="D204" s="10" t="s">
         <v>318</v>
@@ -19753,13 +19769,13 @@
     </row>
     <row r="205">
       <c r="A205" s="10" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="D205" s="10" t="s">
         <v>318</v>
@@ -19803,13 +19819,13 @@
     </row>
     <row r="206">
       <c r="A206" s="10" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="D206" s="10" t="s">
         <v>118</v>
@@ -19853,13 +19869,13 @@
     </row>
     <row r="207">
       <c r="A207" s="10" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="D207" s="10" t="s">
         <v>282</v>
@@ -19901,13 +19917,13 @@
     </row>
     <row r="208">
       <c r="A208" s="10" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B208" s="16" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="D208" s="10" t="s">
         <v>282</v>
@@ -19954,13 +19970,13 @@
     </row>
     <row r="210">
       <c r="A210" s="46" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="B210" s="47" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C210" s="48" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="D210" s="49"/>
       <c r="E210" s="49"/>
@@ -19975,7 +19991,7 @@
       <c r="L210" s="50"/>
       <c r="M210" s="51"/>
       <c r="N210" s="48" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="O210" s="49"/>
       <c r="P210" s="49"/>
@@ -19994,13 +20010,13 @@
     </row>
     <row r="211">
       <c r="A211" s="46" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B211" s="48" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="C211" s="52" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D211" s="49"/>
       <c r="E211" s="49"/>
@@ -20034,13 +20050,13 @@
     </row>
     <row r="212">
       <c r="A212" s="46" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="B212" s="52" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C212" s="48" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="D212" s="49"/>
       <c r="E212" s="49"/>

--- a/documentation-generator/vocab_csv/dpv-pd.xlsx
+++ b/documentation-generator/vocab_csv/dpv-pd.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="752">
   <si>
     <t>Term</t>
   </si>
@@ -75,7 +75,7 @@
     <t>sc</t>
   </si>
   <si>
-    <t>It is advised to carefully consider indicating data is fully or completely anonymised by determining whether the data by itself or in combination with other data can identify a person. Failing this condition, the data should be denoted as PseudoAnonymisedData. To indicate data is anonymised only for a specified entity (e.g. within an organisation), the concept AnonymisedDataWithinScope (as subclass of PseudoAnonymisedData) should be used instead of AnonymisedData.</t>
+    <t>It is advised to carefully consider indicating data is fully or completely anonymised by determining whether the data by itself or in combination with other data can identify a person. Failing this condition, the data should be denoted as PseudonymisedData. To indicate data is anonymised only for a specified entity (e.g. within an organisation), the concept AnonymisedDataWithinScope (as subclass of PseudonymisedData) should be used instead of AnonymisedData.</t>
   </si>
   <si>
     <t>accepted</t>
@@ -96,10 +96,10 @@
     <t>Data that can be considered as being fully anonymised within a Context</t>
   </si>
   <si>
-    <t>dpv:PseudoAnonymisedData</t>
-  </si>
-  <si>
-    <t>To distinguish between pseudo-anonymised data that can be effectively treated as anonymised data (e.g. in processing) within a context (e.g. an organisation), the concept ContextuallyAnonymisedData should be used instead of AnonymisedData. Transfer of this data outside of the context should consider that it is not anonymised, but is pseudo-anonymised data.</t>
+    <t>dpv:PseudonymisedData</t>
+  </si>
+  <si>
+    <t>To distinguish between pseudonymised data that can be effectively treated as anonymised data (e.g. in processing) within a context (e.g. an organisation), the concept ContextuallyAnonymisedData should be used instead of AnonymisedData. Transfer of this data outside of the context should consider that it is not anonymised, but is pseudonymised data.</t>
   </si>
   <si>
     <t>proposed</t>
@@ -795,6 +795,15 @@
   </si>
   <si>
     <t>Information about criminal convictions.</t>
+  </si>
+  <si>
+    <t>CriminalOffense</t>
+  </si>
+  <si>
+    <t>Criminal Offense</t>
+  </si>
+  <si>
+    <t>Information about criminal offenses</t>
   </si>
   <si>
     <t>CriminalPardon</t>
@@ -11625,7 +11634,7 @@
       <c r="A41" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C41" s="10" t="s">
@@ -11641,22 +11650,18 @@
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="24" t="s">
-        <v>107</v>
-      </c>
+      <c r="J41" s="21"/>
       <c r="K41" s="13">
-        <v>43620.0</v>
+        <v>44856.0</v>
       </c>
       <c r="L41" s="12"/>
       <c r="M41" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O41" s="14" t="s">
-        <v>108</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="O41" s="10"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
@@ -11675,14 +11680,14 @@
       <c r="A42" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="16" t="s">
         <v>246</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>247</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>19</v>
@@ -11691,19 +11696,21 @@
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="39">
-        <v>44671.0</v>
+      <c r="J42" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K42" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L42" s="12"/>
       <c r="M42" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
@@ -11721,16 +11728,16 @@
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="10" t="s">
         <v>250</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>136</v>
+        <v>251</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>19</v>
@@ -11739,21 +11746,19 @@
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="K43" s="13">
-        <v>43620.0</v>
+      <c r="J43" s="21"/>
+      <c r="K43" s="39">
+        <v>44671.0</v>
       </c>
       <c r="L43" s="12"/>
       <c r="M43" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
@@ -11771,16 +11776,16 @@
     </row>
     <row r="44">
       <c r="A44" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="C44" s="10" t="s">
         <v>252</v>
       </c>
+      <c r="C44" s="30" t="s">
+        <v>253</v>
+      </c>
       <c r="D44" s="10" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>19</v>
@@ -11820,169 +11825,169 @@
       <c r="AB44" s="12"/>
     </row>
     <row r="45">
-      <c r="A45" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="B45" s="38" t="s">
+      <c r="A45" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="B45" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D45" s="34" t="s">
-        <v>256</v>
+      <c r="D45" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="17" t="s">
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K45" s="13">
+        <v>43620.0</v>
+      </c>
+      <c r="L45" s="12"/>
+      <c r="M45" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O45" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="K45" s="33">
-        <v>44139.0</v>
-      </c>
-      <c r="L45" s="12"/>
-      <c r="M45" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="N45" s="34" t="s">
+      <c r="C46" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="O45" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="32"/>
-      <c r="W45" s="32"/>
-      <c r="X45" s="32"/>
-      <c r="Y45" s="32"/>
-      <c r="Z45" s="32"/>
-      <c r="AA45" s="32"/>
-      <c r="AB45" s="32"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="10" t="s">
+      <c r="D46" s="34" t="s">
         <v>259</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>204</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10" t="s">
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="K46" s="33">
+        <v>44139.0</v>
+      </c>
+      <c r="L46" s="12"/>
+      <c r="M46" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="O46" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="32"/>
+      <c r="Z46" s="32"/>
+      <c r="AA46" s="32"/>
+      <c r="AB46" s="32"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="K46" s="13">
-        <v>43620.0</v>
-      </c>
-      <c r="L46" s="12"/>
-      <c r="M46" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N46" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O46" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="12"/>
-      <c r="U46" s="12"/>
-      <c r="V46" s="12"/>
-      <c r="W46" s="12"/>
-      <c r="X46" s="12"/>
-      <c r="Y46" s="12"/>
-      <c r="Z46" s="12"/>
-      <c r="AA46" s="12"/>
-      <c r="AB46" s="12"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="37" t="s">
+      <c r="B47" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="C47" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C47" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>256</v>
+      <c r="D47" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="K47" s="33">
-        <v>44139.0</v>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K47" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L47" s="12"/>
-      <c r="M47" s="34" t="s">
+      <c r="M47" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N47" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="O47" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="32"/>
-      <c r="W47" s="32"/>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="32"/>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="32"/>
+      <c r="N47" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O47" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
     </row>
     <row r="48">
       <c r="A48" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C48" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="B48" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>270</v>
-      </c>
       <c r="D48" s="34" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="E48" s="10" t="s">
         <v>19</v>
@@ -11992,7 +11997,7 @@
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
       <c r="J48" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K48" s="33">
         <v>44139.0</v>
@@ -12002,7 +12007,7 @@
         <v>21</v>
       </c>
       <c r="N48" s="34" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="O48" s="35" t="s">
         <v>144</v>
@@ -12022,67 +12027,67 @@
       <c r="AB48" s="32"/>
     </row>
     <row r="49">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="B49" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>106</v>
+      <c r="D49" s="34" t="s">
+        <v>169</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="K49" s="13">
-        <v>43620.0</v>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="K49" s="33">
+        <v>44139.0</v>
       </c>
       <c r="L49" s="12"/>
-      <c r="M49" s="10" t="s">
+      <c r="M49" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N49" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O49" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-      <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="12"/>
-      <c r="Y49" s="12"/>
-      <c r="Z49" s="12"/>
-      <c r="AA49" s="12"/>
-      <c r="AB49" s="12"/>
+      <c r="N49" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="O49" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="32"/>
+      <c r="Z49" s="32"/>
+      <c r="AA49" s="32"/>
+      <c r="AB49" s="32"/>
     </row>
     <row r="50">
       <c r="A50" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="B50" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B50" s="16" t="s">
         <v>275</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>276</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>19</v>
@@ -12091,19 +12096,21 @@
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="36">
-        <v>44727.0</v>
+      <c r="J50" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K50" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L50" s="12"/>
-      <c r="M50" s="25" t="s">
+      <c r="M50" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
@@ -12123,14 +12130,14 @@
       <c r="A51" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C51" s="41" t="s">
+      <c r="B51" s="11" t="s">
         <v>278</v>
       </c>
+      <c r="C51" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="D51" s="10" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>19</v>
@@ -12139,21 +12146,19 @@
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
-      <c r="J51" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="K51" s="13">
-        <v>43620.0</v>
+      <c r="J51" s="12"/>
+      <c r="K51" s="36">
+        <v>44727.0</v>
       </c>
       <c r="L51" s="12"/>
-      <c r="M51" s="10" t="s">
+      <c r="M51" s="25" t="s">
         <v>21</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O51" s="14" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
@@ -12171,16 +12176,16 @@
     </row>
     <row r="52">
       <c r="A52" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="41" t="s">
         <v>281</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>19</v>
@@ -12221,12 +12226,12 @@
     </row>
     <row r="53">
       <c r="A53" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="10" t="s">
         <v>284</v>
       </c>
       <c r="D53" s="10" t="s">
@@ -12276,7 +12281,7 @@
       <c r="B54" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="30" t="s">
         <v>287</v>
       </c>
       <c r="D54" s="10" t="s">
@@ -12324,13 +12329,13 @@
         <v>289</v>
       </c>
       <c r="B55" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="D55" s="10" t="s">
         <v>291</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>19</v>
@@ -12423,14 +12428,14 @@
       <c r="A57" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>295</v>
+      <c r="B57" s="16" t="s">
+        <v>296</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>19</v>
@@ -12439,19 +12444,21 @@
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
-      <c r="J57" s="21"/>
+      <c r="J57" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="K57" s="13">
-        <v>44671.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L57" s="12"/>
       <c r="M57" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O57" s="14" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
@@ -12469,7 +12476,7 @@
     </row>
     <row r="58">
       <c r="A58" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>298</v>
@@ -12478,7 +12485,7 @@
         <v>299</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>19</v>
@@ -12517,16 +12524,16 @@
     </row>
     <row r="59">
       <c r="A59" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="D59" s="10" t="s">
         <v>303</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>300</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>19</v>
@@ -12567,14 +12574,14 @@
       <c r="A60" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="11" t="s">
         <v>305</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>306</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>19</v>
@@ -12583,21 +12590,19 @@
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
-      <c r="J60" s="24" t="s">
-        <v>107</v>
-      </c>
+      <c r="J60" s="21"/>
       <c r="K60" s="13">
-        <v>43620.0</v>
+        <v>44671.0</v>
       </c>
       <c r="L60" s="12"/>
       <c r="M60" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
@@ -12615,16 +12620,16 @@
     </row>
     <row r="61">
       <c r="A61" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B61" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="D61" s="10" t="s">
         <v>310</v>
-      </c>
-      <c r="D61" s="42" t="s">
-        <v>311</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>19</v>
@@ -12633,19 +12638,21 @@
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="39">
-        <v>44671.0</v>
+      <c r="J61" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K61" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L61" s="12"/>
       <c r="M61" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N61" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O61" s="14" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
@@ -12663,16 +12670,16 @@
     </row>
     <row r="62">
       <c r="A62" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C62" s="42" t="s">
+      <c r="D62" s="42" t="s">
         <v>314</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>311</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>19</v>
@@ -12713,14 +12720,14 @@
       <c r="A63" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="42" t="s">
         <v>317</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>19</v>
@@ -12729,21 +12736,19 @@
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
-      <c r="J63" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="K63" s="13">
-        <v>43620.0</v>
+      <c r="J63" s="21"/>
+      <c r="K63" s="39">
+        <v>44671.0</v>
       </c>
       <c r="L63" s="12"/>
       <c r="M63" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N63" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O63" s="14" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
@@ -12761,16 +12766,16 @@
     </row>
     <row r="64">
       <c r="A64" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B64" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="C64" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="D64" s="10" t="s">
         <v>321</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>282</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>19</v>
@@ -12814,13 +12819,13 @@
         <v>322</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>150</v>
+        <v>285</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>19</v>
@@ -12861,7 +12866,7 @@
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B66" s="16" t="s">
         <v>325</v>
@@ -12870,7 +12875,7 @@
         <v>326</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>327</v>
+        <v>150</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>19</v>
@@ -12911,7 +12916,7 @@
     </row>
     <row r="67">
       <c r="A67" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B67" s="16" t="s">
         <v>328</v>
@@ -12920,7 +12925,7 @@
         <v>329</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>34</v>
+        <v>330</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>19</v>
@@ -12961,16 +12966,16 @@
     </row>
     <row r="68">
       <c r="A68" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B68" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>331</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>332</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>333</v>
+        <v>34</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>19</v>
@@ -12979,19 +12984,21 @@
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="36">
-        <v>44727.0</v>
+      <c r="J68" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K68" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L68" s="12"/>
-      <c r="M68" s="25" t="s">
+      <c r="M68" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N68" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="P68" s="12"/>
       <c r="Q68" s="12"/>
@@ -13009,16 +13016,16 @@
     </row>
     <row r="69">
       <c r="A69" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="B69" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>334</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>335</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>195</v>
+        <v>336</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>19</v>
@@ -13027,21 +13034,19 @@
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
-      <c r="J69" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="K69" s="13">
-        <v>43620.0</v>
+      <c r="J69" s="12"/>
+      <c r="K69" s="36">
+        <v>44727.0</v>
       </c>
       <c r="L69" s="12"/>
-      <c r="M69" s="10" t="s">
+      <c r="M69" s="25" t="s">
         <v>21</v>
       </c>
       <c r="N69" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
@@ -13059,7 +13064,7 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>337</v>
@@ -13068,7 +13073,7 @@
         <v>338</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>339</v>
+        <v>195</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>19</v>
@@ -13109,16 +13114,16 @@
     </row>
     <row r="71">
       <c r="A71" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B71" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="C71" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="D71" s="10" t="s">
         <v>342</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>343</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>19</v>
@@ -13159,7 +13164,7 @@
     </row>
     <row r="72">
       <c r="A72" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>344</v>
@@ -13212,13 +13217,13 @@
         <v>347</v>
       </c>
       <c r="B73" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="D73" s="10" t="s">
         <v>349</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>350</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>19</v>
@@ -13259,16 +13264,16 @@
     </row>
     <row r="74">
       <c r="A74" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B74" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="C74" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="D74" s="10" t="s">
         <v>353</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>350</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>19</v>
@@ -13318,7 +13323,7 @@
         <v>356</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>19</v>
@@ -13362,13 +13367,13 @@
         <v>357</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>19</v>
@@ -13418,15 +13423,13 @@
         <v>361</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>34</v>
+        <v>362</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F77" s="12"/>
-      <c r="G77" s="12" t="s">
-        <v>362</v>
-      </c>
+      <c r="G77" s="12"/>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
       <c r="J77" s="24" t="s">
@@ -13464,19 +13467,21 @@
         <v>363</v>
       </c>
       <c r="B78" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>365</v>
-      </c>
       <c r="D78" s="10" t="s">
-        <v>366</v>
+        <v>34</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
+      <c r="G78" s="12" t="s">
+        <v>365</v>
+      </c>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
       <c r="J78" s="24" t="s">
@@ -13511,16 +13516,16 @@
     </row>
     <row r="79">
       <c r="A79" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B79" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="C79" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="D79" s="10" t="s">
         <v>369</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>370</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>19</v>
@@ -13561,16 +13566,16 @@
     </row>
     <row r="80">
       <c r="A80" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="B80" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="D80" s="10" t="s">
         <v>373</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>366</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>19</v>
@@ -13579,19 +13584,21 @@
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="36">
-        <v>44727.0</v>
+      <c r="J80" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K80" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L80" s="12"/>
-      <c r="M80" s="25" t="s">
+      <c r="M80" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N80" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O80" s="14" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
@@ -13611,14 +13618,14 @@
       <c r="A81" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="B81" s="16" t="s">
-        <v>374</v>
+      <c r="B81" s="11" t="s">
+        <v>375</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>19</v>
@@ -13627,21 +13634,19 @@
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
-      <c r="J81" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="K81" s="13">
-        <v>43620.0</v>
+      <c r="J81" s="12"/>
+      <c r="K81" s="36">
+        <v>44727.0</v>
       </c>
       <c r="L81" s="12"/>
-      <c r="M81" s="10" t="s">
+      <c r="M81" s="25" t="s">
         <v>21</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O81" s="14" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
@@ -13659,16 +13664,16 @@
     </row>
     <row r="82">
       <c r="A82" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>115</v>
+        <v>336</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>19</v>
@@ -13709,16 +13714,16 @@
     </row>
     <row r="83">
       <c r="A83" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>19</v>
@@ -13759,7 +13764,7 @@
     </row>
     <row r="84">
       <c r="A84" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>381</v>
@@ -13768,7 +13773,7 @@
         <v>382</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>19</v>
@@ -13811,14 +13816,14 @@
       <c r="A85" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="16" t="s">
         <v>384</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>385</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>386</v>
+        <v>192</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>19</v>
@@ -13827,19 +13832,21 @@
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
-      <c r="J85" s="21"/>
+      <c r="J85" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="K85" s="13">
-        <v>44699.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L85" s="12"/>
       <c r="M85" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N85" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O85" s="14" t="s">
-        <v>387</v>
+        <v>108</v>
       </c>
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
@@ -13857,16 +13864,16 @@
     </row>
     <row r="86">
       <c r="A86" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C86" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B86" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="C86" s="30" t="s">
+      <c r="D86" s="10" t="s">
         <v>389</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>390</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>19</v>
@@ -13875,21 +13882,19 @@
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
-      <c r="J86" s="24" t="s">
-        <v>107</v>
-      </c>
+      <c r="J86" s="21"/>
       <c r="K86" s="13">
-        <v>43620.0</v>
+        <v>44699.0</v>
       </c>
       <c r="L86" s="12"/>
       <c r="M86" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N86" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O86" s="14" t="s">
-        <v>108</v>
+        <v>390</v>
       </c>
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
@@ -13910,13 +13915,13 @@
         <v>391</v>
       </c>
       <c r="B87" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="C87" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="D87" s="10" t="s">
         <v>393</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>161</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>19</v>
@@ -13966,7 +13971,7 @@
         <v>396</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>19</v>
@@ -14012,11 +14017,11 @@
       <c r="B89" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C89" s="10" t="s">
         <v>399</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E89" s="10" t="s">
         <v>19</v>
@@ -14060,21 +14065,19 @@
         <v>400</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="C90" s="30" t="s">
         <v>401</v>
       </c>
+      <c r="C90" s="29" t="s">
+        <v>402</v>
+      </c>
       <c r="D90" s="10" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F90" s="12"/>
-      <c r="G90" s="12" t="s">
-        <v>402</v>
-      </c>
+      <c r="G90" s="12"/>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
       <c r="J90" s="24" t="s">
@@ -14112,10 +14115,10 @@
         <v>403</v>
       </c>
       <c r="B91" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C91" s="30" t="s">
         <v>404</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>405</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>165</v>
@@ -14124,7 +14127,9 @@
         <v>19</v>
       </c>
       <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
+      <c r="G91" s="12" t="s">
+        <v>405</v>
+      </c>
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
       <c r="J91" s="24" t="s">
@@ -14212,13 +14217,13 @@
         <v>409</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="C93" s="29" t="s">
         <v>410</v>
       </c>
+      <c r="C93" s="10" t="s">
+        <v>411</v>
+      </c>
       <c r="D93" s="10" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>19</v>
@@ -14259,16 +14264,16 @@
     </row>
     <row r="94">
       <c r="A94" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="C94" s="10" t="s">
         <v>412</v>
       </c>
+      <c r="C94" s="29" t="s">
+        <v>413</v>
+      </c>
       <c r="D94" s="10" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>19</v>
@@ -14309,9 +14314,9 @@
     </row>
     <row r="95">
       <c r="A95" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="B95" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B95" s="16" t="s">
         <v>414</v>
       </c>
       <c r="C95" s="10" t="s">
@@ -14327,19 +14332,21 @@
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="36">
-        <v>44727.0</v>
+      <c r="J95" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K95" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L95" s="12"/>
-      <c r="M95" s="25" t="s">
+      <c r="M95" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N95" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O95" s="14" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="P95" s="12"/>
       <c r="Q95" s="12"/>
@@ -14359,14 +14366,14 @@
       <c r="A96" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="11" t="s">
         <v>417</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>418</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="E96" s="10" t="s">
         <v>19</v>
@@ -14375,21 +14382,19 @@
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
-      <c r="J96" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="K96" s="13">
-        <v>43620.0</v>
+      <c r="J96" s="12"/>
+      <c r="K96" s="36">
+        <v>44727.0</v>
       </c>
       <c r="L96" s="12"/>
-      <c r="M96" s="10" t="s">
+      <c r="M96" s="25" t="s">
         <v>21</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O96" s="14" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="P96" s="12"/>
       <c r="Q96" s="12"/>
@@ -14409,14 +14414,14 @@
       <c r="A97" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="16" t="s">
         <v>420</v>
       </c>
       <c r="C97" s="10" t="s">
         <v>421</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="E97" s="10" t="s">
         <v>19</v>
@@ -14425,19 +14430,21 @@
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="39">
-        <v>44671.0</v>
+      <c r="J97" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K97" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L97" s="12"/>
       <c r="M97" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O97" s="14" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="P97" s="12"/>
       <c r="Q97" s="12"/>
@@ -14458,13 +14465,13 @@
         <v>422</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>19</v>
@@ -14473,19 +14480,19 @@
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="13">
-        <v>44727.0</v>
+      <c r="J98" s="21"/>
+      <c r="K98" s="39">
+        <v>44671.0</v>
       </c>
       <c r="L98" s="12"/>
-      <c r="M98" s="25" t="s">
+      <c r="M98" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N98" s="10" t="s">
         <v>30</v>
       </c>
       <c r="O98" s="14" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="P98" s="12"/>
       <c r="Q98" s="12"/>
@@ -14503,16 +14510,16 @@
     </row>
     <row r="99">
       <c r="A99" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>424</v>
+        <v>425</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>425</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="E99" s="10" t="s">
         <v>19</v>
@@ -14521,21 +14528,19 @@
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
-      <c r="J99" s="24" t="s">
-        <v>107</v>
-      </c>
+      <c r="J99" s="12"/>
       <c r="K99" s="13">
-        <v>43620.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L99" s="12"/>
-      <c r="M99" s="10" t="s">
+      <c r="M99" s="25" t="s">
         <v>21</v>
       </c>
       <c r="N99" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O99" s="14" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="P99" s="12"/>
       <c r="Q99" s="12"/>
@@ -14553,16 +14558,16 @@
     </row>
     <row r="100">
       <c r="A100" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="E100" s="10" t="s">
         <v>19</v>
@@ -14603,7 +14608,7 @@
     </row>
     <row r="101">
       <c r="A101" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B101" s="16" t="s">
         <v>429</v>
@@ -14612,7 +14617,7 @@
         <v>430</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>390</v>
+        <v>210</v>
       </c>
       <c r="E101" s="10" t="s">
         <v>19</v>
@@ -14662,7 +14667,7 @@
         <v>433</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
       <c r="E102" s="10" t="s">
         <v>19</v>
@@ -14705,14 +14710,14 @@
       <c r="A103" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="B103" s="11" t="s">
-        <v>434</v>
+      <c r="B103" s="16" t="s">
+        <v>435</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="E103" s="10" t="s">
         <v>19</v>
@@ -14721,19 +14726,21 @@
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
-      <c r="J103" s="21"/>
+      <c r="J103" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="K103" s="13">
-        <v>44671.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L103" s="12"/>
       <c r="M103" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N103" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O103" s="14" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="P103" s="12"/>
       <c r="Q103" s="12"/>
@@ -14751,16 +14758,16 @@
     </row>
     <row r="104">
       <c r="A104" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>436</v>
+        <v>437</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>437</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="E104" s="10" t="s">
         <v>19</v>
@@ -14769,21 +14776,19 @@
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
-      <c r="J104" s="24" t="s">
-        <v>107</v>
-      </c>
+      <c r="J104" s="21"/>
       <c r="K104" s="13">
-        <v>43620.0</v>
+        <v>44671.0</v>
       </c>
       <c r="L104" s="12"/>
       <c r="M104" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N104" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O104" s="14" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="P104" s="12"/>
       <c r="Q104" s="12"/>
@@ -14801,16 +14806,16 @@
     </row>
     <row r="105">
       <c r="A105" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>192</v>
+        <v>349</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>19</v>
@@ -14851,16 +14856,16 @@
     </row>
     <row r="106">
       <c r="A106" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>346</v>
+        <v>192</v>
       </c>
       <c r="E106" s="10" t="s">
         <v>19</v>
@@ -14901,16 +14906,16 @@
     </row>
     <row r="107">
       <c r="A107" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>34</v>
+        <v>349</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>19</v>
@@ -14951,7 +14956,7 @@
     </row>
     <row r="108">
       <c r="A108" s="10" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B108" s="16" t="s">
         <v>445</v>
@@ -14960,7 +14965,7 @@
         <v>446</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="E108" s="10" t="s">
         <v>19</v>
@@ -15004,13 +15009,13 @@
         <v>447</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>282</v>
+        <v>169</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>19</v>
@@ -15051,7 +15056,7 @@
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B110" s="16" t="s">
         <v>450</v>
@@ -15060,7 +15065,7 @@
         <v>451</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>139</v>
+        <v>285</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>19</v>
@@ -15104,13 +15109,13 @@
         <v>452</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>19</v>
@@ -15125,11 +15130,9 @@
       <c r="K111" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L111" s="13">
-        <v>44671.0</v>
-      </c>
+      <c r="L111" s="12"/>
       <c r="M111" s="10" t="s">
-        <v>454</v>
+        <v>21</v>
       </c>
       <c r="N111" s="10" t="s">
         <v>47</v>
@@ -15156,13 +15159,13 @@
         <v>455</v>
       </c>
       <c r="B112" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="C112" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="C112" s="10" t="s">
-        <v>457</v>
-      </c>
       <c r="D112" s="10" t="s">
-        <v>458</v>
+        <v>150</v>
       </c>
       <c r="E112" s="10" t="s">
         <v>19</v>
@@ -15177,9 +15180,11 @@
       <c r="K112" s="13">
         <v>43620.0</v>
       </c>
-      <c r="L112" s="12"/>
+      <c r="L112" s="13">
+        <v>44671.0</v>
+      </c>
       <c r="M112" s="10" t="s">
-        <v>21</v>
+        <v>457</v>
       </c>
       <c r="N112" s="10" t="s">
         <v>47</v>
@@ -15203,16 +15208,16 @@
     </row>
     <row r="113">
       <c r="A113" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B113" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="C113" s="30" t="s">
+      <c r="C113" s="10" t="s">
         <v>460</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>285</v>
+        <v>461</v>
       </c>
       <c r="E113" s="10" t="s">
         <v>19</v>
@@ -15253,24 +15258,22 @@
     </row>
     <row r="114">
       <c r="A114" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="B114" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="B114" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C114" s="30" t="s">
         <v>463</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>136</v>
+        <v>288</v>
       </c>
       <c r="E114" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F114" s="12"/>
-      <c r="G114" s="12" t="s">
-        <v>464</v>
-      </c>
+      <c r="G114" s="12"/>
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
       <c r="J114" s="24" t="s">
@@ -15305,22 +15308,24 @@
     </row>
     <row r="115">
       <c r="A115" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B115" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="C115" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="C115" s="10" t="s">
-        <v>467</v>
-      </c>
       <c r="D115" s="10" t="s">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="E115" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
+      <c r="G115" s="12" t="s">
+        <v>467</v>
+      </c>
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
       <c r="J115" s="24" t="s">
@@ -15358,21 +15363,19 @@
         <v>468</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E116" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F116" s="12"/>
-      <c r="G116" s="12" t="s">
-        <v>470</v>
-      </c>
+      <c r="G116" s="12"/>
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
       <c r="J116" s="24" t="s">
@@ -15410,19 +15413,21 @@
         <v>471</v>
       </c>
       <c r="B117" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="C117" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="C117" s="10" t="s">
-        <v>473</v>
-      </c>
       <c r="D117" s="10" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="E117" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
+      <c r="G117" s="12" t="s">
+        <v>473</v>
+      </c>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
       <c r="J117" s="24" t="s">
@@ -15466,7 +15471,7 @@
         <v>476</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="E118" s="10" t="s">
         <v>19</v>
@@ -15510,13 +15515,13 @@
         <v>477</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>288</v>
+        <v>192</v>
       </c>
       <c r="E119" s="10" t="s">
         <v>19</v>
@@ -15557,16 +15562,16 @@
     </row>
     <row r="120">
       <c r="A120" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="B120" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B120" s="16" t="s">
         <v>480</v>
       </c>
       <c r="C120" s="10" t="s">
         <v>481</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>482</v>
+        <v>291</v>
       </c>
       <c r="E120" s="10" t="s">
         <v>19</v>
@@ -15607,16 +15612,16 @@
     </row>
     <row r="121">
       <c r="A121" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="B121" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="C121" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="D121" s="10" t="s">
         <v>485</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>486</v>
       </c>
       <c r="E121" s="10" t="s">
         <v>19</v>
@@ -15657,7 +15662,7 @@
     </row>
     <row r="122">
       <c r="A122" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B122" s="16" t="s">
         <v>487</v>
@@ -15709,14 +15714,14 @@
       <c r="A123" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="16" t="s">
         <v>490</v>
       </c>
       <c r="C123" s="10" t="s">
         <v>491</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>150</v>
+        <v>492</v>
       </c>
       <c r="E123" s="10" t="s">
         <v>19</v>
@@ -15725,18 +15730,22 @@
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
-      <c r="J123" s="21"/>
+      <c r="J123" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="K123" s="13">
-        <v>44671.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L123" s="12"/>
       <c r="M123" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N123" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O123" s="10"/>
+      <c r="N123" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O123" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="P123" s="12"/>
       <c r="Q123" s="12"/>
       <c r="R123" s="12"/>
@@ -15753,42 +15762,36 @@
     </row>
     <row r="124">
       <c r="A124" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="B124" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="B124" s="11" t="s">
         <v>493</v>
       </c>
       <c r="C124" s="10" t="s">
         <v>494</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>489</v>
+        <v>150</v>
       </c>
       <c r="E124" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F124" s="12"/>
-      <c r="G124" s="12" t="s">
-        <v>495</v>
-      </c>
+      <c r="G124" s="12"/>
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
-      <c r="J124" s="24" t="s">
-        <v>107</v>
-      </c>
+      <c r="J124" s="21"/>
       <c r="K124" s="13">
-        <v>43620.0</v>
+        <v>44671.0</v>
       </c>
       <c r="L124" s="12"/>
       <c r="M124" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N124" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O124" s="14" t="s">
-        <v>108</v>
-      </c>
+      <c r="N124" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O124" s="10"/>
       <c r="P124" s="12"/>
       <c r="Q124" s="12"/>
       <c r="R124" s="12"/>
@@ -15805,22 +15808,24 @@
     </row>
     <row r="125">
       <c r="A125" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B125" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="C125" s="30" t="s">
+      <c r="C125" s="10" t="s">
         <v>497</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>288</v>
+        <v>492</v>
       </c>
       <c r="E125" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
+      <c r="G125" s="12" t="s">
+        <v>498</v>
+      </c>
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
       <c r="J125" s="24" t="s">
@@ -15855,16 +15860,16 @@
     </row>
     <row r="126">
       <c r="A126" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="C126" s="10" t="s">
         <v>499</v>
       </c>
+      <c r="C126" s="30" t="s">
+        <v>500</v>
+      </c>
       <c r="D126" s="10" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="E126" s="10" t="s">
         <v>19</v>
@@ -15905,16 +15910,16 @@
     </row>
     <row r="127">
       <c r="A127" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="E127" s="10" t="s">
         <v>19</v>
@@ -15955,16 +15960,16 @@
     </row>
     <row r="128">
       <c r="A128" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="C128" s="30" t="s">
         <v>503</v>
       </c>
+      <c r="C128" s="10" t="s">
+        <v>504</v>
+      </c>
       <c r="D128" s="10" t="s">
-        <v>288</v>
+        <v>369</v>
       </c>
       <c r="E128" s="10" t="s">
         <v>19</v>
@@ -16005,16 +16010,16 @@
     </row>
     <row r="129">
       <c r="A129" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="C129" s="10" t="s">
         <v>505</v>
       </c>
+      <c r="B129" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="C129" s="30" t="s">
+        <v>506</v>
+      </c>
       <c r="D129" s="10" t="s">
-        <v>506</v>
+        <v>291</v>
       </c>
       <c r="E129" s="10" t="s">
         <v>19</v>
@@ -16023,19 +16028,21 @@
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
-      <c r="J129" s="21"/>
+      <c r="J129" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="K129" s="13">
-        <v>44671.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L129" s="12"/>
       <c r="M129" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N129" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O129" s="14" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="P129" s="12"/>
       <c r="Q129" s="12"/>
@@ -16055,7 +16062,7 @@
       <c r="A130" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="11" t="s">
         <v>507</v>
       </c>
       <c r="C130" s="10" t="s">
@@ -16071,21 +16078,19 @@
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
-      <c r="J130" s="24" t="s">
-        <v>107</v>
-      </c>
+      <c r="J130" s="21"/>
       <c r="K130" s="13">
-        <v>43620.0</v>
+        <v>44671.0</v>
       </c>
       <c r="L130" s="12"/>
       <c r="M130" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N130" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O130" s="14" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="P130" s="12"/>
       <c r="Q130" s="12"/>
@@ -16102,67 +16107,67 @@
       <c r="AB130" s="12"/>
     </row>
     <row r="131">
-      <c r="A131" s="37" t="s">
+      <c r="A131" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="B131" s="38" t="s">
+      <c r="B131" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="C131" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C131" s="37" t="s">
+      <c r="D131" s="10" t="s">
         <v>512</v>
-      </c>
-      <c r="D131" s="34" t="s">
-        <v>112</v>
       </c>
       <c r="E131" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F131" s="32"/>
-      <c r="G131" s="32"/>
-      <c r="H131" s="32"/>
-      <c r="I131" s="32"/>
-      <c r="J131" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="K131" s="33">
-        <v>44139.0</v>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K131" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L131" s="12"/>
-      <c r="M131" s="34" t="s">
+      <c r="M131" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N131" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="O131" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="P131" s="32"/>
-      <c r="Q131" s="32"/>
-      <c r="R131" s="32"/>
-      <c r="S131" s="32"/>
-      <c r="T131" s="32"/>
-      <c r="U131" s="32"/>
-      <c r="V131" s="32"/>
-      <c r="W131" s="32"/>
-      <c r="X131" s="32"/>
-      <c r="Y131" s="32"/>
-      <c r="Z131" s="32"/>
-      <c r="AA131" s="32"/>
-      <c r="AB131" s="32"/>
+      <c r="N131" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O131" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="P131" s="12"/>
+      <c r="Q131" s="12"/>
+      <c r="R131" s="12"/>
+      <c r="S131" s="12"/>
+      <c r="T131" s="12"/>
+      <c r="U131" s="12"/>
+      <c r="V131" s="12"/>
+      <c r="W131" s="12"/>
+      <c r="X131" s="12"/>
+      <c r="Y131" s="12"/>
+      <c r="Z131" s="12"/>
+      <c r="AA131" s="12"/>
+      <c r="AB131" s="12"/>
     </row>
     <row r="132">
       <c r="A132" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="B132" s="38" t="s">
         <v>514</v>
       </c>
-      <c r="B132" s="38" t="s">
+      <c r="C132" s="37" t="s">
         <v>515</v>
       </c>
-      <c r="C132" s="34" t="s">
-        <v>516</v>
-      </c>
       <c r="D132" s="34" t="s">
-        <v>517</v>
+        <v>112</v>
       </c>
       <c r="E132" s="10" t="s">
         <v>19</v>
@@ -16172,7 +16177,7 @@
       <c r="H132" s="32"/>
       <c r="I132" s="32"/>
       <c r="J132" s="17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K132" s="33">
         <v>44139.0</v>
@@ -16182,7 +16187,7 @@
         <v>21</v>
       </c>
       <c r="N132" s="34" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="O132" s="35" t="s">
         <v>144</v>
@@ -16203,16 +16208,16 @@
     </row>
     <row r="133">
       <c r="A133" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="B133" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="C133" s="34" t="s">
         <v>519</v>
       </c>
-      <c r="B133" s="38" t="s">
+      <c r="D133" s="34" t="s">
         <v>520</v>
-      </c>
-      <c r="C133" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="D133" s="34" t="s">
-        <v>522</v>
       </c>
       <c r="E133" s="10" t="s">
         <v>19</v>
@@ -16222,7 +16227,7 @@
       <c r="H133" s="32"/>
       <c r="I133" s="32"/>
       <c r="J133" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K133" s="33">
         <v>44139.0</v>
@@ -16252,65 +16257,67 @@
       <c r="AB133" s="32"/>
     </row>
     <row r="134">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="B134" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="C134" s="37" t="s">
         <v>524</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="D134" s="34" t="s">
         <v>525</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>527</v>
       </c>
       <c r="E134" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F134" s="12"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="13">
-        <v>44727.0</v>
+      <c r="F134" s="32"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="32"/>
+      <c r="I134" s="32"/>
+      <c r="J134" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="K134" s="33">
+        <v>44139.0</v>
       </c>
       <c r="L134" s="12"/>
-      <c r="M134" s="25" t="s">
+      <c r="M134" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="N134" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O134" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="P134" s="12"/>
-      <c r="Q134" s="12"/>
-      <c r="R134" s="12"/>
-      <c r="S134" s="12"/>
-      <c r="T134" s="12"/>
-      <c r="U134" s="12"/>
-      <c r="V134" s="12"/>
-      <c r="W134" s="12"/>
-      <c r="X134" s="12"/>
-      <c r="Y134" s="12"/>
-      <c r="Z134" s="12"/>
-      <c r="AA134" s="12"/>
-      <c r="AB134" s="12"/>
+      <c r="N134" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="O134" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="P134" s="32"/>
+      <c r="Q134" s="32"/>
+      <c r="R134" s="32"/>
+      <c r="S134" s="32"/>
+      <c r="T134" s="32"/>
+      <c r="U134" s="32"/>
+      <c r="V134" s="32"/>
+      <c r="W134" s="32"/>
+      <c r="X134" s="32"/>
+      <c r="Y134" s="32"/>
+      <c r="Z134" s="32"/>
+      <c r="AA134" s="32"/>
+      <c r="AB134" s="32"/>
     </row>
     <row r="135">
       <c r="A135" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="B135" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="C135" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="D135" s="10" t="s">
         <v>530</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="E135" s="10" t="s">
         <v>19</v>
@@ -16351,14 +16358,14 @@
       <c r="A136" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="B136" s="16" t="s">
-        <v>531</v>
+      <c r="B136" s="11" t="s">
+        <v>532</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="E136" s="10" t="s">
         <v>19</v>
@@ -16367,21 +16374,19 @@
       <c r="G136" s="12"/>
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
-      <c r="J136" s="24" t="s">
-        <v>107</v>
-      </c>
+      <c r="J136" s="12"/>
       <c r="K136" s="13">
-        <v>43620.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L136" s="12"/>
-      <c r="M136" s="10" t="s">
+      <c r="M136" s="25" t="s">
         <v>21</v>
       </c>
       <c r="N136" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O136" s="14" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="P136" s="12"/>
       <c r="Q136" s="12"/>
@@ -16399,7 +16404,7 @@
     </row>
     <row r="137">
       <c r="A137" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B137" s="16" t="s">
         <v>534</v>
@@ -16408,7 +16413,7 @@
         <v>535</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="E137" s="10" t="s">
         <v>19</v>
@@ -16458,7 +16463,7 @@
         <v>538</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>539</v>
+        <v>189</v>
       </c>
       <c r="E138" s="10" t="s">
         <v>19</v>
@@ -16499,16 +16504,16 @@
     </row>
     <row r="139">
       <c r="A139" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="B139" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="B139" s="16" t="s">
+      <c r="C139" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="C139" s="10" t="s">
+      <c r="D139" s="10" t="s">
         <v>542</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>307</v>
       </c>
       <c r="E139" s="10" t="s">
         <v>19</v>
@@ -16551,22 +16556,20 @@
       <c r="A140" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="16" t="s">
         <v>544</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>545</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="E140" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F140" s="12"/>
-      <c r="G140" s="12" t="s">
-        <v>546</v>
-      </c>
+      <c r="G140" s="12"/>
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
       <c r="J140" s="24" t="s">
@@ -16601,22 +16604,24 @@
     </row>
     <row r="141">
       <c r="A141" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="B141" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="C141" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="C141" s="10" t="s">
-        <v>549</v>
-      </c>
       <c r="D141" s="10" t="s">
-        <v>486</v>
+        <v>150</v>
       </c>
       <c r="E141" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F141" s="12"/>
-      <c r="G141" s="12"/>
+      <c r="G141" s="12" t="s">
+        <v>549</v>
+      </c>
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
       <c r="J141" s="24" t="s">
@@ -16660,7 +16665,7 @@
         <v>552</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>390</v>
+        <v>489</v>
       </c>
       <c r="E142" s="10" t="s">
         <v>19</v>
@@ -16704,13 +16709,13 @@
         <v>553</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>489</v>
+        <v>393</v>
       </c>
       <c r="E143" s="10" t="s">
         <v>19</v>
@@ -16751,16 +16756,16 @@
     </row>
     <row r="144">
       <c r="A144" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="C144" s="29" t="s">
         <v>556</v>
       </c>
+      <c r="C144" s="10" t="s">
+        <v>557</v>
+      </c>
       <c r="D144" s="10" t="s">
-        <v>118</v>
+        <v>492</v>
       </c>
       <c r="E144" s="10" t="s">
         <v>19</v>
@@ -16801,16 +16806,16 @@
     </row>
     <row r="145">
       <c r="A145" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B145" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C145" s="29" t="s">
         <v>559</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>509</v>
+        <v>118</v>
       </c>
       <c r="E145" s="10" t="s">
         <v>19</v>
@@ -16860,15 +16865,13 @@
         <v>562</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>563</v>
+        <v>512</v>
       </c>
       <c r="E146" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F146" s="12"/>
-      <c r="G146" s="12" t="s">
-        <v>564</v>
-      </c>
+      <c r="G146" s="12"/>
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
       <c r="J146" s="24" t="s">
@@ -16903,37 +16906,41 @@
     </row>
     <row r="147">
       <c r="A147" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="D147" s="10" t="s">
         <v>566</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>563</v>
       </c>
       <c r="E147" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
+      <c r="G147" s="12" t="s">
+        <v>567</v>
+      </c>
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
-      <c r="J147" s="21"/>
+      <c r="J147" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="K147" s="13">
-        <v>44699.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L147" s="12"/>
       <c r="M147" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N147" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O147" s="14" t="s">
-        <v>387</v>
+        <v>108</v>
       </c>
       <c r="P147" s="12"/>
       <c r="Q147" s="12"/>
@@ -16953,39 +16960,35 @@
       <c r="A148" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="B148" s="16" t="s">
-        <v>568</v>
+      <c r="B148" s="11" t="s">
+        <v>569</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>139</v>
+        <v>566</v>
       </c>
       <c r="E148" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F148" s="12"/>
-      <c r="G148" s="12" t="s">
-        <v>570</v>
-      </c>
+      <c r="G148" s="12"/>
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
-      <c r="J148" s="24" t="s">
-        <v>107</v>
-      </c>
+      <c r="J148" s="21"/>
       <c r="K148" s="13">
-        <v>43620.0</v>
+        <v>44699.0</v>
       </c>
       <c r="L148" s="12"/>
       <c r="M148" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N148" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O148" s="14" t="s">
-        <v>108</v>
+        <v>390</v>
       </c>
       <c r="P148" s="12"/>
       <c r="Q148" s="12"/>
@@ -17012,13 +17015,15 @@
         <v>572</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="E149" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
+      <c r="G149" s="12" t="s">
+        <v>573</v>
+      </c>
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
       <c r="J149" s="24" t="s">
@@ -17053,7 +17058,7 @@
     </row>
     <row r="150">
       <c r="A150" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B150" s="16" t="s">
         <v>574</v>
@@ -17062,7 +17067,7 @@
         <v>575</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>346</v>
+        <v>165</v>
       </c>
       <c r="E150" s="10" t="s">
         <v>19</v>
@@ -17106,13 +17111,13 @@
         <v>576</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="E151" s="10" t="s">
         <v>19</v>
@@ -17153,16 +17158,16 @@
     </row>
     <row r="152">
       <c r="A152" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>195</v>
+        <v>362</v>
       </c>
       <c r="E152" s="10" t="s">
         <v>19</v>
@@ -17203,16 +17208,16 @@
     </row>
     <row r="153">
       <c r="A153" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="B153" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="B153" s="16" t="s">
         <v>581</v>
       </c>
       <c r="C153" s="10" t="s">
         <v>582</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="E153" s="10" t="s">
         <v>19</v>
@@ -17255,14 +17260,14 @@
       <c r="A154" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="B154" s="16" t="s">
+      <c r="B154" s="11" t="s">
         <v>584</v>
       </c>
       <c r="C154" s="10" t="s">
         <v>585</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E154" s="10" t="s">
         <v>19</v>
@@ -17312,7 +17317,7 @@
         <v>588</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E155" s="10" t="s">
         <v>19</v>
@@ -17355,14 +17360,14 @@
       <c r="A156" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="B156" s="11" t="s">
-        <v>589</v>
+      <c r="B156" s="16" t="s">
+        <v>590</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>34</v>
+        <v>285</v>
       </c>
       <c r="E156" s="10" t="s">
         <v>19</v>
@@ -17371,19 +17376,21 @@
       <c r="G156" s="12"/>
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
-      <c r="J156" s="12"/>
-      <c r="K156" s="36">
-        <v>44727.0</v>
+      <c r="J156" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K156" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L156" s="12"/>
-      <c r="M156" s="25" t="s">
+      <c r="M156" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N156" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O156" s="14" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="P156" s="12"/>
       <c r="Q156" s="12"/>
@@ -17401,7 +17408,7 @@
     </row>
     <row r="157">
       <c r="A157" s="10" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B157" s="11" t="s">
         <v>592</v>
@@ -17410,7 +17417,7 @@
         <v>593</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>594</v>
+        <v>34</v>
       </c>
       <c r="E157" s="10" t="s">
         <v>19</v>
@@ -17420,13 +17427,19 @@
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
       <c r="J157" s="12"/>
-      <c r="K157" s="36"/>
+      <c r="K157" s="36">
+        <v>44727.0</v>
+      </c>
       <c r="L157" s="12"/>
       <c r="M157" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="N157" s="10"/>
-      <c r="O157" s="25"/>
+        <v>21</v>
+      </c>
+      <c r="N157" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O157" s="14" t="s">
+        <v>174</v>
+      </c>
       <c r="P157" s="12"/>
       <c r="Q157" s="12"/>
       <c r="R157" s="12"/>
@@ -17443,16 +17456,16 @@
     </row>
     <row r="158">
       <c r="A158" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="B158" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="C158" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="D158" s="10" t="s">
         <v>597</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>594</v>
       </c>
       <c r="E158" s="10" t="s">
         <v>19</v>
@@ -17461,14 +17474,14 @@
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
-      <c r="J158" s="21"/>
-      <c r="K158" s="13"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="36"/>
       <c r="L158" s="12"/>
-      <c r="M158" s="10" t="s">
+      <c r="M158" s="25" t="s">
         <v>29</v>
       </c>
       <c r="N158" s="10"/>
-      <c r="O158" s="10"/>
+      <c r="O158" s="25"/>
       <c r="P158" s="12"/>
       <c r="Q158" s="12"/>
       <c r="R158" s="12"/>
@@ -17487,14 +17500,14 @@
       <c r="A159" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="B159" s="16" t="s">
+      <c r="B159" s="11" t="s">
         <v>599</v>
       </c>
       <c r="C159" s="10" t="s">
         <v>600</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>195</v>
+        <v>597</v>
       </c>
       <c r="E159" s="10" t="s">
         <v>19</v>
@@ -17503,22 +17516,14 @@
       <c r="G159" s="12"/>
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
-      <c r="J159" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="K159" s="13">
-        <v>43620.0</v>
-      </c>
+      <c r="J159" s="21"/>
+      <c r="K159" s="13"/>
       <c r="L159" s="12"/>
       <c r="M159" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N159" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O159" s="14" t="s">
-        <v>108</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="N159" s="10"/>
+      <c r="O159" s="10"/>
       <c r="P159" s="12"/>
       <c r="Q159" s="12"/>
       <c r="R159" s="12"/>
@@ -17537,14 +17542,14 @@
       <c r="A160" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="16" t="s">
         <v>602</v>
       </c>
       <c r="C160" s="10" t="s">
         <v>603</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>604</v>
+        <v>195</v>
       </c>
       <c r="E160" s="10" t="s">
         <v>19</v>
@@ -17553,19 +17558,21 @@
       <c r="G160" s="12"/>
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
-      <c r="J160" s="12"/>
-      <c r="K160" s="36">
-        <v>44727.0</v>
+      <c r="J160" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K160" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L160" s="12"/>
-      <c r="M160" s="25" t="s">
+      <c r="M160" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N160" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O160" s="14" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="P160" s="12"/>
       <c r="Q160" s="12"/>
@@ -17583,41 +17590,37 @@
     </row>
     <row r="161">
       <c r="A161" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="B161" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="B161" s="11" t="s">
         <v>605</v>
       </c>
       <c r="C161" s="10" t="s">
         <v>606</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>210</v>
+        <v>607</v>
       </c>
       <c r="E161" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10" t="s">
-        <v>607</v>
-      </c>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
-      <c r="J161" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="K161" s="13">
-        <v>43620.0</v>
+      <c r="J161" s="12"/>
+      <c r="K161" s="36">
+        <v>44727.0</v>
       </c>
       <c r="L161" s="12"/>
-      <c r="M161" s="10" t="s">
+      <c r="M161" s="25" t="s">
         <v>21</v>
       </c>
       <c r="N161" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O161" s="14" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="P161" s="12"/>
       <c r="Q161" s="12"/>
@@ -17638,10 +17641,10 @@
         <v>608</v>
       </c>
       <c r="B162" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="C162" s="10" t="s">
         <v>609</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>610</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>210</v>
@@ -17649,8 +17652,10 @@
       <c r="E162" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F162" s="12"/>
-      <c r="G162" s="12"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10" t="s">
+        <v>610</v>
+      </c>
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
       <c r="J162" s="24" t="s">
@@ -17688,13 +17693,13 @@
         <v>611</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>327</v>
+        <v>210</v>
       </c>
       <c r="E163" s="10" t="s">
         <v>19</v>
@@ -17735,16 +17740,16 @@
     </row>
     <row r="164">
       <c r="A164" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="E164" s="10" t="s">
         <v>19</v>
@@ -17785,16 +17790,16 @@
     </row>
     <row r="165">
       <c r="A165" s="10" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>343</v>
+        <v>285</v>
       </c>
       <c r="E165" s="10" t="s">
         <v>19</v>
@@ -17835,16 +17840,16 @@
     </row>
     <row r="166">
       <c r="A166" s="10" t="s">
-        <v>617</v>
-      </c>
-      <c r="B166" s="11" t="s">
-        <v>617</v>
+        <v>618</v>
+      </c>
+      <c r="B166" s="16" t="s">
+        <v>618</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>136</v>
+        <v>346</v>
       </c>
       <c r="E166" s="10" t="s">
         <v>19</v>
@@ -17853,19 +17858,21 @@
       <c r="G166" s="12"/>
       <c r="H166" s="12"/>
       <c r="I166" s="12"/>
-      <c r="J166" s="12"/>
+      <c r="J166" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="K166" s="13">
-        <v>44727.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L166" s="12"/>
-      <c r="M166" s="25" t="s">
+      <c r="M166" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N166" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O166" s="14" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="P166" s="12"/>
       <c r="Q166" s="12"/>
@@ -17883,16 +17890,16 @@
     </row>
     <row r="167">
       <c r="A167" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="B167" s="16" t="s">
-        <v>619</v>
+        <v>620</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>620</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>563</v>
+        <v>136</v>
       </c>
       <c r="E167" s="10" t="s">
         <v>19</v>
@@ -17901,21 +17908,19 @@
       <c r="G167" s="12"/>
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
-      <c r="J167" s="24" t="s">
-        <v>107</v>
-      </c>
+      <c r="J167" s="12"/>
       <c r="K167" s="13">
-        <v>43620.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L167" s="12"/>
-      <c r="M167" s="10" t="s">
+      <c r="M167" s="25" t="s">
         <v>21</v>
       </c>
       <c r="N167" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O167" s="14" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="P167" s="12"/>
       <c r="Q167" s="12"/>
@@ -17933,7 +17938,7 @@
     </row>
     <row r="168">
       <c r="A168" s="10" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B168" s="16" t="s">
         <v>622</v>
@@ -17942,7 +17947,7 @@
         <v>623</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>539</v>
+        <v>566</v>
       </c>
       <c r="E168" s="10" t="s">
         <v>19</v>
@@ -17986,13 +17991,13 @@
         <v>624</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>333</v>
+        <v>542</v>
       </c>
       <c r="E169" s="10" t="s">
         <v>19</v>
@@ -18033,7 +18038,7 @@
     </row>
     <row r="170">
       <c r="A170" s="10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B170" s="16" t="s">
         <v>627</v>
@@ -18042,7 +18047,7 @@
         <v>628</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>161</v>
+        <v>336</v>
       </c>
       <c r="E170" s="10" t="s">
         <v>19</v>
@@ -18086,13 +18091,13 @@
         <v>629</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>282</v>
+        <v>161</v>
       </c>
       <c r="E171" s="10" t="s">
         <v>19</v>
@@ -18133,16 +18138,16 @@
     </row>
     <row r="172">
       <c r="A172" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="E172" s="10" t="s">
         <v>19</v>
@@ -18183,16 +18188,16 @@
     </row>
     <row r="173">
       <c r="A173" s="10" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>282</v>
+        <v>210</v>
       </c>
       <c r="E173" s="10" t="s">
         <v>19</v>
@@ -18233,7 +18238,7 @@
     </row>
     <row r="174">
       <c r="A174" s="10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B174" s="16" t="s">
         <v>636</v>
@@ -18242,7 +18247,7 @@
         <v>637</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>509</v>
+        <v>285</v>
       </c>
       <c r="E174" s="10" t="s">
         <v>19</v>
@@ -18285,14 +18290,14 @@
       <c r="A175" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="B175" s="16" t="s">
         <v>639</v>
       </c>
       <c r="C175" s="10" t="s">
         <v>640</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>136</v>
+        <v>512</v>
       </c>
       <c r="E175" s="10" t="s">
         <v>19</v>
@@ -18301,21 +18306,21 @@
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
       <c r="I175" s="12"/>
-      <c r="J175" s="19" t="s">
-        <v>641</v>
+      <c r="J175" s="24" t="s">
+        <v>107</v>
       </c>
       <c r="K175" s="13">
-        <v>43795.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L175" s="12"/>
       <c r="M175" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N175" s="10" t="s">
-        <v>642</v>
+        <v>47</v>
       </c>
       <c r="O175" s="14" t="s">
-        <v>643</v>
+        <v>108</v>
       </c>
       <c r="P175" s="12"/>
       <c r="Q175" s="12"/>
@@ -18333,16 +18338,16 @@
     </row>
     <row r="176">
       <c r="A176" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="B176" s="16" t="s">
-        <v>644</v>
+        <v>641</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>642</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>482</v>
+        <v>136</v>
       </c>
       <c r="E176" s="10" t="s">
         <v>19</v>
@@ -18351,21 +18356,21 @@
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
       <c r="I176" s="12"/>
-      <c r="J176" s="24" t="s">
-        <v>107</v>
+      <c r="J176" s="19" t="s">
+        <v>644</v>
       </c>
       <c r="K176" s="13">
-        <v>43620.0</v>
+        <v>43795.0</v>
       </c>
       <c r="L176" s="12"/>
       <c r="M176" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N176" s="10" t="s">
-        <v>47</v>
+        <v>645</v>
       </c>
       <c r="O176" s="14" t="s">
-        <v>108</v>
+        <v>646</v>
       </c>
       <c r="P176" s="12"/>
       <c r="Q176" s="12"/>
@@ -18383,7 +18388,7 @@
     </row>
     <row r="177">
       <c r="A177" s="10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B177" s="16" t="s">
         <v>647</v>
@@ -18392,7 +18397,7 @@
         <v>648</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>359</v>
+        <v>485</v>
       </c>
       <c r="E177" s="10" t="s">
         <v>19</v>
@@ -18442,7 +18447,7 @@
         <v>651</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E178" s="10" t="s">
         <v>19</v>
@@ -18486,13 +18491,13 @@
         <v>652</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>652</v>
-      </c>
-      <c r="C179" s="30" t="s">
         <v>653</v>
       </c>
+      <c r="C179" s="10" t="s">
+        <v>654</v>
+      </c>
       <c r="D179" s="10" t="s">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="E179" s="10" t="s">
         <v>19</v>
@@ -18533,16 +18538,16 @@
     </row>
     <row r="180">
       <c r="A180" s="10" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B180" s="16" t="s">
         <v>655</v>
       </c>
-      <c r="C180" s="10" t="s">
+      <c r="C180" s="30" t="s">
         <v>656</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>118</v>
+        <v>291</v>
       </c>
       <c r="E180" s="10" t="s">
         <v>19</v>
@@ -18586,13 +18591,13 @@
         <v>657</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="E181" s="10" t="s">
         <v>19</v>
@@ -18633,24 +18638,22 @@
     </row>
     <row r="182">
       <c r="A182" s="10" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B182" s="16" t="s">
         <v>660</v>
       </c>
-      <c r="C182" s="30" t="s">
+      <c r="C182" s="10" t="s">
         <v>661</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>318</v>
+        <v>34</v>
       </c>
       <c r="E182" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F182" s="12"/>
-      <c r="G182" s="12" t="s">
-        <v>662</v>
-      </c>
+      <c r="G182" s="12"/>
       <c r="H182" s="12"/>
       <c r="I182" s="12"/>
       <c r="J182" s="24" t="s">
@@ -18685,37 +18688,41 @@
     </row>
     <row r="183">
       <c r="A183" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="B183" s="16" t="s">
         <v>663</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="C183" s="30" t="s">
         <v>664</v>
       </c>
-      <c r="C183" s="10" t="s">
-        <v>665</v>
-      </c>
       <c r="D183" s="10" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E183" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F183" s="12"/>
-      <c r="G183" s="12"/>
+      <c r="G183" s="12" t="s">
+        <v>665</v>
+      </c>
       <c r="H183" s="12"/>
       <c r="I183" s="12"/>
-      <c r="J183" s="12"/>
+      <c r="J183" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="K183" s="13">
-        <v>44727.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L183" s="12"/>
-      <c r="M183" s="25" t="s">
+      <c r="M183" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N183" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O183" s="14" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="P183" s="12"/>
       <c r="Q183" s="12"/>
@@ -18735,14 +18742,14 @@
       <c r="A184" s="10" t="s">
         <v>666</v>
       </c>
-      <c r="B184" s="16" t="s">
+      <c r="B184" s="11" t="s">
         <v>667</v>
       </c>
       <c r="C184" s="10" t="s">
         <v>668</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>195</v>
+        <v>321</v>
       </c>
       <c r="E184" s="10" t="s">
         <v>19</v>
@@ -18751,21 +18758,19 @@
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
-      <c r="J184" s="24" t="s">
-        <v>107</v>
-      </c>
+      <c r="J184" s="12"/>
       <c r="K184" s="13">
-        <v>43620.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L184" s="12"/>
-      <c r="M184" s="10" t="s">
+      <c r="M184" s="25" t="s">
         <v>21</v>
       </c>
       <c r="N184" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O184" s="14" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="P184" s="12"/>
       <c r="Q184" s="12"/>
@@ -18792,7 +18797,7 @@
         <v>671</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E185" s="10" t="s">
         <v>19</v>
@@ -18836,13 +18841,13 @@
         <v>672</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="E186" s="10" t="s">
         <v>19</v>
@@ -18883,16 +18888,16 @@
     </row>
     <row r="187">
       <c r="A187" s="10" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B187" s="16" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="E187" s="10" t="s">
         <v>19</v>
@@ -18933,7 +18938,7 @@
     </row>
     <row r="188">
       <c r="A188" s="10" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B188" s="16" t="s">
         <v>677</v>
@@ -18942,7 +18947,7 @@
         <v>678</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>307</v>
+        <v>210</v>
       </c>
       <c r="E188" s="10" t="s">
         <v>19</v>
@@ -18958,7 +18963,7 @@
         <v>43620.0</v>
       </c>
       <c r="L188" s="12"/>
-      <c r="M188" s="42" t="s">
+      <c r="M188" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N188" s="10" t="s">
@@ -18982,17 +18987,17 @@
       <c r="AB188" s="12"/>
     </row>
     <row r="189">
-      <c r="A189" s="30" t="s">
+      <c r="A189" s="10" t="s">
         <v>679</v>
       </c>
-      <c r="B189" s="43" t="s">
-        <v>679</v>
-      </c>
-      <c r="C189" s="29" t="s">
+      <c r="B189" s="16" t="s">
         <v>680</v>
       </c>
+      <c r="C189" s="10" t="s">
+        <v>681</v>
+      </c>
       <c r="D189" s="10" t="s">
-        <v>681</v>
+        <v>310</v>
       </c>
       <c r="E189" s="10" t="s">
         <v>19</v>
@@ -19008,7 +19013,7 @@
         <v>43620.0</v>
       </c>
       <c r="L189" s="12"/>
-      <c r="M189" s="10" t="s">
+      <c r="M189" s="42" t="s">
         <v>21</v>
       </c>
       <c r="N189" s="10" t="s">
@@ -19032,17 +19037,17 @@
       <c r="AB189" s="12"/>
     </row>
     <row r="190">
-      <c r="A190" s="10" t="s">
+      <c r="A190" s="30" t="s">
         <v>682</v>
       </c>
-      <c r="B190" s="16" t="s">
+      <c r="B190" s="43" t="s">
         <v>682</v>
       </c>
-      <c r="C190" s="10" t="s">
+      <c r="C190" s="29" t="s">
         <v>683</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>34</v>
+        <v>684</v>
       </c>
       <c r="E190" s="10" t="s">
         <v>19</v>
@@ -19083,16 +19088,16 @@
     </row>
     <row r="191">
       <c r="A191" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="B191" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="B191" s="16" t="s">
         <v>685</v>
       </c>
       <c r="C191" s="10" t="s">
         <v>686</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>687</v>
+        <v>34</v>
       </c>
       <c r="E191" s="10" t="s">
         <v>19</v>
@@ -19101,19 +19106,21 @@
       <c r="G191" s="12"/>
       <c r="H191" s="12"/>
       <c r="I191" s="12"/>
-      <c r="J191" s="21"/>
+      <c r="J191" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="K191" s="13">
-        <v>44699.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L191" s="12"/>
       <c r="M191" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N191" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O191" s="14" t="s">
-        <v>387</v>
+        <v>108</v>
       </c>
       <c r="P191" s="12"/>
       <c r="Q191" s="12"/>
@@ -19131,16 +19138,16 @@
     </row>
     <row r="192">
       <c r="A192" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="B192" s="26" t="s">
+        <v>687</v>
+      </c>
+      <c r="B192" s="11" t="s">
         <v>688</v>
       </c>
       <c r="C192" s="10" t="s">
         <v>689</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>210</v>
+        <v>690</v>
       </c>
       <c r="E192" s="10" t="s">
         <v>19</v>
@@ -19149,21 +19156,19 @@
       <c r="G192" s="12"/>
       <c r="H192" s="12"/>
       <c r="I192" s="12"/>
-      <c r="J192" s="24" t="s">
-        <v>107</v>
-      </c>
+      <c r="J192" s="21"/>
       <c r="K192" s="13">
-        <v>43620.0</v>
+        <v>44699.0</v>
       </c>
       <c r="L192" s="12"/>
       <c r="M192" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N192" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O192" s="14" t="s">
-        <v>108</v>
+        <v>390</v>
       </c>
       <c r="P192" s="12"/>
       <c r="Q192" s="12"/>
@@ -19181,16 +19186,16 @@
     </row>
     <row r="193">
       <c r="A193" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="B193" s="16" t="s">
-        <v>690</v>
+        <v>691</v>
+      </c>
+      <c r="B193" s="26" t="s">
+        <v>691</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>366</v>
+        <v>210</v>
       </c>
       <c r="E193" s="10" t="s">
         <v>19</v>
@@ -19231,16 +19236,16 @@
     </row>
     <row r="194">
       <c r="A194" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="B194" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="B194" s="16" t="s">
         <v>693</v>
       </c>
       <c r="C194" s="10" t="s">
         <v>694</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>161</v>
+        <v>369</v>
       </c>
       <c r="E194" s="10" t="s">
         <v>19</v>
@@ -19249,19 +19254,21 @@
       <c r="G194" s="12"/>
       <c r="H194" s="12"/>
       <c r="I194" s="12"/>
-      <c r="J194" s="21"/>
+      <c r="J194" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="K194" s="13">
-        <v>44671.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L194" s="12"/>
       <c r="M194" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N194" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O194" s="14" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="P194" s="12"/>
       <c r="Q194" s="12"/>
@@ -19288,7 +19295,7 @@
         <v>697</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>698</v>
+        <v>161</v>
       </c>
       <c r="E195" s="10" t="s">
         <v>19</v>
@@ -19297,21 +19304,19 @@
       <c r="G195" s="12"/>
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
-      <c r="J195" s="19" t="s">
-        <v>699</v>
-      </c>
+      <c r="J195" s="21"/>
       <c r="K195" s="13">
-        <v>43795.0</v>
+        <v>44671.0</v>
       </c>
       <c r="L195" s="12"/>
       <c r="M195" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N195" s="10" t="s">
-        <v>642</v>
+        <v>30</v>
       </c>
       <c r="O195" s="14" t="s">
-        <v>643</v>
+        <v>123</v>
       </c>
       <c r="P195" s="12"/>
       <c r="Q195" s="12"/>
@@ -19329,41 +19334,39 @@
     </row>
     <row r="196">
       <c r="A196" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="C196" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="B196" s="16" t="s">
-        <v>700</v>
-      </c>
-      <c r="C196" s="10" t="s">
+      <c r="D196" s="10" t="s">
         <v>701</v>
-      </c>
-      <c r="D196" s="10" t="s">
-        <v>489</v>
       </c>
       <c r="E196" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F196" s="10"/>
-      <c r="G196" s="10" t="s">
-        <v>702</v>
-      </c>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
       <c r="H196" s="12"/>
       <c r="I196" s="12"/>
-      <c r="J196" s="24" t="s">
-        <v>107</v>
+      <c r="J196" s="19" t="s">
+        <v>702</v>
       </c>
       <c r="K196" s="13">
-        <v>43620.0</v>
+        <v>43795.0</v>
       </c>
       <c r="L196" s="12"/>
       <c r="M196" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N196" s="10" t="s">
-        <v>47</v>
+        <v>645</v>
       </c>
       <c r="O196" s="14" t="s">
-        <v>108</v>
+        <v>646</v>
       </c>
       <c r="P196" s="12"/>
       <c r="Q196" s="12"/>
@@ -19383,112 +19386,114 @@
       <c r="A197" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="B197" s="25" t="s">
+      <c r="B197" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="C197" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="C197" s="44" t="s">
-        <v>705</v>
-      </c>
-      <c r="D197" s="25" t="s">
-        <v>204</v>
+      <c r="D197" s="10" t="s">
+        <v>492</v>
       </c>
       <c r="E197" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F197" s="45"/>
-      <c r="G197" s="45"/>
-      <c r="H197" s="45"/>
-      <c r="I197" s="45"/>
-      <c r="J197" s="25"/>
-      <c r="K197" s="36">
-        <v>44727.0</v>
-      </c>
-      <c r="L197" s="36"/>
-      <c r="M197" s="25" t="s">
+      <c r="F197" s="10"/>
+      <c r="G197" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="H197" s="12"/>
+      <c r="I197" s="12"/>
+      <c r="J197" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K197" s="13">
+        <v>43620.0</v>
+      </c>
+      <c r="L197" s="12"/>
+      <c r="M197" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="N197" s="25" t="s">
-        <v>66</v>
+      <c r="N197" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="O197" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="P197" s="45"/>
-      <c r="Q197" s="45"/>
-      <c r="R197" s="45"/>
-      <c r="S197" s="45"/>
-      <c r="T197" s="45"/>
-      <c r="U197" s="45"/>
-      <c r="V197" s="45"/>
-      <c r="W197" s="45"/>
-      <c r="X197" s="45"/>
-      <c r="Y197" s="45"/>
-      <c r="Z197" s="45"/>
-      <c r="AA197" s="45"/>
-      <c r="AB197" s="45"/>
+        <v>108</v>
+      </c>
+      <c r="P197" s="12"/>
+      <c r="Q197" s="12"/>
+      <c r="R197" s="12"/>
+      <c r="S197" s="12"/>
+      <c r="T197" s="12"/>
+      <c r="U197" s="12"/>
+      <c r="V197" s="12"/>
+      <c r="W197" s="12"/>
+      <c r="X197" s="12"/>
+      <c r="Y197" s="12"/>
+      <c r="Z197" s="12"/>
+      <c r="AA197" s="12"/>
+      <c r="AB197" s="12"/>
     </row>
     <row r="198">
       <c r="A198" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="B198" s="16" t="s">
-        <v>706</v>
-      </c>
-      <c r="C198" s="10" t="s">
+      <c r="B198" s="25" t="s">
         <v>707</v>
       </c>
-      <c r="D198" s="10" t="s">
-        <v>489</v>
+      <c r="C198" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="D198" s="25" t="s">
+        <v>204</v>
       </c>
       <c r="E198" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F198" s="12"/>
-      <c r="G198" s="12"/>
-      <c r="H198" s="12"/>
-      <c r="I198" s="12"/>
-      <c r="J198" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="K198" s="13">
-        <v>43620.0</v>
-      </c>
-      <c r="L198" s="12"/>
-      <c r="M198" s="10" t="s">
+      <c r="F198" s="45"/>
+      <c r="G198" s="45"/>
+      <c r="H198" s="45"/>
+      <c r="I198" s="45"/>
+      <c r="J198" s="25"/>
+      <c r="K198" s="36">
+        <v>44727.0</v>
+      </c>
+      <c r="L198" s="36"/>
+      <c r="M198" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N198" s="10" t="s">
-        <v>47</v>
+      <c r="N198" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="O198" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="P198" s="12"/>
-      <c r="Q198" s="12"/>
-      <c r="R198" s="12"/>
-      <c r="S198" s="12"/>
-      <c r="T198" s="12"/>
-      <c r="U198" s="12"/>
-      <c r="V198" s="12"/>
-      <c r="W198" s="12"/>
-      <c r="X198" s="12"/>
-      <c r="Y198" s="12"/>
-      <c r="Z198" s="12"/>
-      <c r="AA198" s="12"/>
-      <c r="AB198" s="12"/>
+        <v>174</v>
+      </c>
+      <c r="P198" s="45"/>
+      <c r="Q198" s="45"/>
+      <c r="R198" s="45"/>
+      <c r="S198" s="45"/>
+      <c r="T198" s="45"/>
+      <c r="U198" s="45"/>
+      <c r="V198" s="45"/>
+      <c r="W198" s="45"/>
+      <c r="X198" s="45"/>
+      <c r="Y198" s="45"/>
+      <c r="Z198" s="45"/>
+      <c r="AA198" s="45"/>
+      <c r="AB198" s="45"/>
     </row>
     <row r="199">
       <c r="A199" s="10" t="s">
-        <v>708</v>
-      </c>
-      <c r="B199" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="B199" s="16" t="s">
         <v>709</v>
       </c>
       <c r="C199" s="10" t="s">
         <v>710</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>711</v>
+        <v>492</v>
       </c>
       <c r="E199" s="10" t="s">
         <v>19</v>
@@ -19497,19 +19502,21 @@
       <c r="G199" s="12"/>
       <c r="H199" s="12"/>
       <c r="I199" s="12"/>
-      <c r="J199" s="12"/>
-      <c r="K199" s="36">
-        <v>44727.0</v>
+      <c r="J199" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K199" s="13">
+        <v>43620.0</v>
       </c>
       <c r="L199" s="12"/>
-      <c r="M199" s="25" t="s">
+      <c r="M199" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N199" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O199" s="14" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="P199" s="12"/>
       <c r="Q199" s="12"/>
@@ -19527,16 +19534,16 @@
     </row>
     <row r="200">
       <c r="A200" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="B200" s="11" t="s">
         <v>712</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>709</v>
       </c>
       <c r="C200" s="10" t="s">
         <v>713</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="E200" s="10" t="s">
         <v>19</v>
@@ -19546,7 +19553,7 @@
       <c r="H200" s="12"/>
       <c r="I200" s="12"/>
       <c r="J200" s="12"/>
-      <c r="K200" s="13">
+      <c r="K200" s="36">
         <v>44727.0</v>
       </c>
       <c r="L200" s="12"/>
@@ -19575,16 +19582,16 @@
     </row>
     <row r="201">
       <c r="A201" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C201" s="10" t="s">
         <v>716</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>150</v>
+        <v>714</v>
       </c>
       <c r="E201" s="10" t="s">
         <v>19</v>
@@ -19632,7 +19639,7 @@
         <v>719</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>720</v>
+        <v>150</v>
       </c>
       <c r="E202" s="10" t="s">
         <v>19</v>
@@ -19671,16 +19678,16 @@
     </row>
     <row r="203">
       <c r="A203" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="B203" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="B203" s="11" t="s">
+      <c r="C203" s="10" t="s">
         <v>722</v>
       </c>
-      <c r="C203" s="10" t="s">
+      <c r="D203" s="10" t="s">
         <v>723</v>
-      </c>
-      <c r="D203" s="10" t="s">
-        <v>724</v>
       </c>
       <c r="E203" s="10" t="s">
         <v>19</v>
@@ -19690,7 +19697,7 @@
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
       <c r="J203" s="12"/>
-      <c r="K203" s="36">
+      <c r="K203" s="13">
         <v>44727.0</v>
       </c>
       <c r="L203" s="12"/>
@@ -19719,16 +19726,16 @@
     </row>
     <row r="204">
       <c r="A204" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="B204" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="B204" s="16" t="s">
+      <c r="C204" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="C204" s="30" t="s">
+      <c r="D204" s="10" t="s">
         <v>727</v>
-      </c>
-      <c r="D204" s="10" t="s">
-        <v>318</v>
       </c>
       <c r="E204" s="10" t="s">
         <v>19</v>
@@ -19736,22 +19743,20 @@
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
       <c r="H204" s="12"/>
-      <c r="I204" s="23"/>
-      <c r="J204" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="K204" s="13">
-        <v>43620.0</v>
+      <c r="I204" s="12"/>
+      <c r="J204" s="12"/>
+      <c r="K204" s="36">
+        <v>44727.0</v>
       </c>
       <c r="L204" s="12"/>
-      <c r="M204" s="10" t="s">
+      <c r="M204" s="25" t="s">
         <v>21</v>
       </c>
       <c r="N204" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O204" s="14" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="P204" s="12"/>
       <c r="Q204" s="12"/>
@@ -19774,11 +19779,11 @@
       <c r="B205" s="16" t="s">
         <v>729</v>
       </c>
-      <c r="C205" s="10" t="s">
+      <c r="C205" s="30" t="s">
         <v>730</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E205" s="10" t="s">
         <v>19</v>
@@ -19786,7 +19791,7 @@
       <c r="F205" s="12"/>
       <c r="G205" s="12"/>
       <c r="H205" s="12"/>
-      <c r="I205" s="12"/>
+      <c r="I205" s="23"/>
       <c r="J205" s="24" t="s">
         <v>107</v>
       </c>
@@ -19822,13 +19827,13 @@
         <v>731</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="E206" s="10" t="s">
         <v>19</v>
@@ -19869,16 +19874,16 @@
     </row>
     <row r="207">
       <c r="A207" s="10" t="s">
-        <v>733</v>
-      </c>
-      <c r="B207" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="B207" s="16" t="s">
         <v>734</v>
       </c>
       <c r="C207" s="10" t="s">
         <v>735</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>282</v>
+        <v>118</v>
       </c>
       <c r="E207" s="10" t="s">
         <v>19</v>
@@ -19887,19 +19892,21 @@
       <c r="G207" s="12"/>
       <c r="H207" s="12"/>
       <c r="I207" s="12"/>
-      <c r="J207" s="12"/>
+      <c r="J207" s="24" t="s">
+        <v>107</v>
+      </c>
       <c r="K207" s="13">
-        <v>44727.0</v>
+        <v>43620.0</v>
       </c>
       <c r="L207" s="12"/>
-      <c r="M207" s="25" t="s">
+      <c r="M207" s="10" t="s">
         <v>21</v>
       </c>
       <c r="N207" s="10" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O207" s="14" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="P207" s="12"/>
       <c r="Q207" s="12"/>
@@ -19919,14 +19926,14 @@
       <c r="A208" s="10" t="s">
         <v>736</v>
       </c>
-      <c r="B208" s="16" t="s">
+      <c r="B208" s="11" t="s">
         <v>737</v>
       </c>
       <c r="C208" s="10" t="s">
         <v>738</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E208" s="10" t="s">
         <v>19</v>
@@ -19935,21 +19942,19 @@
       <c r="G208" s="12"/>
       <c r="H208" s="12"/>
       <c r="I208" s="12"/>
-      <c r="J208" s="24" t="s">
-        <v>107</v>
-      </c>
+      <c r="J208" s="12"/>
       <c r="K208" s="13">
-        <v>43620.0</v>
+        <v>44727.0</v>
       </c>
       <c r="L208" s="12"/>
-      <c r="M208" s="10" t="s">
+      <c r="M208" s="25" t="s">
         <v>21</v>
       </c>
       <c r="N208" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O208" s="14" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
       <c r="P208" s="12"/>
       <c r="Q208" s="12"/>
@@ -19966,57 +19971,67 @@
       <c r="AB208" s="12"/>
     </row>
     <row r="209">
-      <c r="B209" s="26"/>
+      <c r="A209" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="B209" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="D209" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E209" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F209" s="12"/>
+      <c r="G209" s="12"/>
+      <c r="H209" s="12"/>
+      <c r="I209" s="12"/>
+      <c r="J209" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K209" s="13">
+        <v>43620.0</v>
+      </c>
+      <c r="L209" s="12"/>
+      <c r="M209" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N209" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O209" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="P209" s="12"/>
+      <c r="Q209" s="12"/>
+      <c r="R209" s="12"/>
+      <c r="S209" s="12"/>
+      <c r="T209" s="12"/>
+      <c r="U209" s="12"/>
+      <c r="V209" s="12"/>
+      <c r="W209" s="12"/>
+      <c r="X209" s="12"/>
+      <c r="Y209" s="12"/>
+      <c r="Z209" s="12"/>
+      <c r="AA209" s="12"/>
+      <c r="AB209" s="12"/>
     </row>
     <row r="210">
-      <c r="A210" s="46" t="s">
-        <v>739</v>
-      </c>
-      <c r="B210" s="47" t="s">
-        <v>740</v>
-      </c>
-      <c r="C210" s="48" t="s">
-        <v>741</v>
-      </c>
-      <c r="D210" s="49"/>
-      <c r="E210" s="49"/>
-      <c r="F210" s="49"/>
-      <c r="G210" s="49"/>
-      <c r="H210" s="49"/>
-      <c r="I210" s="49"/>
-      <c r="J210" s="49"/>
-      <c r="K210" s="50">
-        <v>44005.0</v>
-      </c>
-      <c r="L210" s="50"/>
-      <c r="M210" s="51"/>
-      <c r="N210" s="48" t="s">
-        <v>742</v>
-      </c>
-      <c r="O210" s="49"/>
-      <c r="P210" s="49"/>
-      <c r="Q210" s="49"/>
-      <c r="R210" s="49"/>
-      <c r="S210" s="49"/>
-      <c r="T210" s="49"/>
-      <c r="U210" s="49"/>
-      <c r="V210" s="49"/>
-      <c r="W210" s="49"/>
-      <c r="X210" s="49"/>
-      <c r="Y210" s="49"/>
-      <c r="Z210" s="49"/>
-      <c r="AA210" s="49"/>
-      <c r="AB210" s="49"/>
+      <c r="B210" s="26"/>
     </row>
     <row r="211">
       <c r="A211" s="46" t="s">
+        <v>742</v>
+      </c>
+      <c r="B211" s="47" t="s">
         <v>743</v>
       </c>
-      <c r="B211" s="48" t="s">
+      <c r="C211" s="48" t="s">
         <v>744</v>
-      </c>
-      <c r="C211" s="52" t="s">
-        <v>745</v>
       </c>
       <c r="D211" s="49"/>
       <c r="E211" s="49"/>
@@ -20031,7 +20046,7 @@
       <c r="L211" s="50"/>
       <c r="M211" s="51"/>
       <c r="N211" s="48" t="s">
-        <v>66</v>
+        <v>745</v>
       </c>
       <c r="O211" s="49"/>
       <c r="P211" s="49"/>
@@ -20052,10 +20067,10 @@
       <c r="A212" s="46" t="s">
         <v>746</v>
       </c>
-      <c r="B212" s="52" t="s">
+      <c r="B212" s="48" t="s">
         <v>747</v>
       </c>
-      <c r="C212" s="48" t="s">
+      <c r="C212" s="52" t="s">
         <v>748</v>
       </c>
       <c r="D212" s="49"/>
@@ -20066,12 +20081,12 @@
       <c r="I212" s="49"/>
       <c r="J212" s="49"/>
       <c r="K212" s="50">
-        <v>44139.0</v>
+        <v>44005.0</v>
       </c>
       <c r="L212" s="50"/>
       <c r="M212" s="51"/>
       <c r="N212" s="48" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="O212" s="49"/>
       <c r="P212" s="49"/>
@@ -20089,7 +20104,44 @@
       <c r="AB212" s="49"/>
     </row>
     <row r="213">
-      <c r="B213" s="26"/>
+      <c r="A213" s="46" t="s">
+        <v>749</v>
+      </c>
+      <c r="B213" s="52" t="s">
+        <v>750</v>
+      </c>
+      <c r="C213" s="48" t="s">
+        <v>751</v>
+      </c>
+      <c r="D213" s="49"/>
+      <c r="E213" s="49"/>
+      <c r="F213" s="49"/>
+      <c r="G213" s="49"/>
+      <c r="H213" s="49"/>
+      <c r="I213" s="49"/>
+      <c r="J213" s="49"/>
+      <c r="K213" s="50">
+        <v>44139.0</v>
+      </c>
+      <c r="L213" s="50"/>
+      <c r="M213" s="51"/>
+      <c r="N213" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="O213" s="49"/>
+      <c r="P213" s="49"/>
+      <c r="Q213" s="49"/>
+      <c r="R213" s="49"/>
+      <c r="S213" s="49"/>
+      <c r="T213" s="49"/>
+      <c r="U213" s="49"/>
+      <c r="V213" s="49"/>
+      <c r="W213" s="49"/>
+      <c r="X213" s="49"/>
+      <c r="Y213" s="49"/>
+      <c r="Z213" s="49"/>
+      <c r="AA213" s="49"/>
+      <c r="AB213" s="49"/>
     </row>
     <row r="214">
       <c r="B214" s="26"/>
@@ -22638,23 +22690,26 @@
     <row r="1062">
       <c r="B1062" s="26"/>
     </row>
+    <row r="1063">
+      <c r="B1063" s="26"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AB1012">
+  <conditionalFormatting sqref="A2:AB1013">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB1012">
+  <conditionalFormatting sqref="A2:AB1013">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
+  <conditionalFormatting sqref="A191">
     <cfRule type="notContainsBlanks" dxfId="5" priority="3">
-      <formula>LEN(TRIM(A190))&gt;0</formula>
+      <formula>LEN(TRIM(A191))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AB1012">
+  <conditionalFormatting sqref="A2:AB1013">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>$M2="changed"</formula>
     </cfRule>
@@ -22733,306 +22788,306 @@
     <hyperlink r:id="rId71" ref="O39"/>
     <hyperlink r:id="rId72" ref="J40"/>
     <hyperlink r:id="rId73" ref="O40"/>
-    <hyperlink r:id="rId74" ref="J41"/>
-    <hyperlink r:id="rId75" ref="O41"/>
-    <hyperlink r:id="rId76" ref="O42"/>
-    <hyperlink r:id="rId77" ref="J43"/>
-    <hyperlink r:id="rId78" ref="O43"/>
-    <hyperlink r:id="rId79" ref="J44"/>
-    <hyperlink r:id="rId80" ref="O44"/>
-    <hyperlink r:id="rId81" ref="J45"/>
-    <hyperlink r:id="rId82" ref="O45"/>
-    <hyperlink r:id="rId83" ref="J46"/>
-    <hyperlink r:id="rId84" ref="O46"/>
-    <hyperlink r:id="rId85" ref="J47"/>
-    <hyperlink r:id="rId86" ref="O47"/>
-    <hyperlink r:id="rId87" ref="J48"/>
-    <hyperlink r:id="rId88" ref="O48"/>
-    <hyperlink r:id="rId89" ref="J49"/>
-    <hyperlink r:id="rId90" ref="O49"/>
-    <hyperlink r:id="rId91" ref="O50"/>
-    <hyperlink r:id="rId92" ref="J51"/>
-    <hyperlink r:id="rId93" ref="O51"/>
-    <hyperlink r:id="rId94" ref="J52"/>
-    <hyperlink r:id="rId95" ref="O52"/>
-    <hyperlink r:id="rId96" ref="J53"/>
-    <hyperlink r:id="rId97" ref="O53"/>
-    <hyperlink r:id="rId98" ref="J54"/>
-    <hyperlink r:id="rId99" ref="O54"/>
-    <hyperlink r:id="rId100" ref="J55"/>
-    <hyperlink r:id="rId101" ref="O55"/>
-    <hyperlink r:id="rId102" ref="J56"/>
-    <hyperlink r:id="rId103" ref="O56"/>
-    <hyperlink r:id="rId104" ref="O57"/>
-    <hyperlink r:id="rId105" ref="O58"/>
-    <hyperlink r:id="rId106" ref="O59"/>
-    <hyperlink r:id="rId107" ref="J60"/>
-    <hyperlink r:id="rId108" ref="O60"/>
-    <hyperlink r:id="rId109" ref="O61"/>
-    <hyperlink r:id="rId110" ref="O62"/>
-    <hyperlink r:id="rId111" ref="J63"/>
-    <hyperlink r:id="rId112" ref="O63"/>
-    <hyperlink r:id="rId113" ref="J64"/>
-    <hyperlink r:id="rId114" ref="O64"/>
-    <hyperlink r:id="rId115" ref="J65"/>
-    <hyperlink r:id="rId116" ref="O65"/>
-    <hyperlink r:id="rId117" ref="J66"/>
-    <hyperlink r:id="rId118" ref="O66"/>
-    <hyperlink r:id="rId119" ref="J67"/>
-    <hyperlink r:id="rId120" ref="O67"/>
-    <hyperlink r:id="rId121" ref="O68"/>
-    <hyperlink r:id="rId122" ref="J69"/>
-    <hyperlink r:id="rId123" ref="O69"/>
-    <hyperlink r:id="rId124" ref="J70"/>
-    <hyperlink r:id="rId125" ref="O70"/>
-    <hyperlink r:id="rId126" ref="J71"/>
-    <hyperlink r:id="rId127" ref="O71"/>
-    <hyperlink r:id="rId128" ref="J72"/>
-    <hyperlink r:id="rId129" ref="O72"/>
-    <hyperlink r:id="rId130" ref="J73"/>
-    <hyperlink r:id="rId131" ref="O73"/>
-    <hyperlink r:id="rId132" ref="J74"/>
-    <hyperlink r:id="rId133" ref="O74"/>
-    <hyperlink r:id="rId134" ref="J75"/>
-    <hyperlink r:id="rId135" ref="O75"/>
-    <hyperlink r:id="rId136" ref="J76"/>
-    <hyperlink r:id="rId137" ref="O76"/>
-    <hyperlink r:id="rId138" ref="J77"/>
-    <hyperlink r:id="rId139" ref="O77"/>
-    <hyperlink r:id="rId140" ref="J78"/>
-    <hyperlink r:id="rId141" ref="O78"/>
-    <hyperlink r:id="rId142" ref="J79"/>
-    <hyperlink r:id="rId143" ref="O79"/>
-    <hyperlink r:id="rId144" ref="O80"/>
-    <hyperlink r:id="rId145" ref="J81"/>
-    <hyperlink r:id="rId146" ref="O81"/>
-    <hyperlink r:id="rId147" ref="J82"/>
-    <hyperlink r:id="rId148" ref="O82"/>
-    <hyperlink r:id="rId149" ref="J83"/>
-    <hyperlink r:id="rId150" ref="O83"/>
-    <hyperlink r:id="rId151" ref="J84"/>
-    <hyperlink r:id="rId152" ref="O84"/>
-    <hyperlink r:id="rId153" ref="O85"/>
-    <hyperlink r:id="rId154" ref="J86"/>
-    <hyperlink r:id="rId155" ref="O86"/>
-    <hyperlink r:id="rId156" ref="J87"/>
-    <hyperlink r:id="rId157" ref="O87"/>
-    <hyperlink r:id="rId158" ref="J88"/>
-    <hyperlink r:id="rId159" ref="O88"/>
-    <hyperlink r:id="rId160" ref="J89"/>
-    <hyperlink r:id="rId161" ref="O89"/>
-    <hyperlink r:id="rId162" ref="J90"/>
-    <hyperlink r:id="rId163" ref="O90"/>
-    <hyperlink r:id="rId164" ref="J91"/>
-    <hyperlink r:id="rId165" ref="O91"/>
-    <hyperlink r:id="rId166" ref="J92"/>
-    <hyperlink r:id="rId167" ref="O92"/>
-    <hyperlink r:id="rId168" ref="J93"/>
-    <hyperlink r:id="rId169" ref="O93"/>
-    <hyperlink r:id="rId170" ref="J94"/>
-    <hyperlink r:id="rId171" ref="O94"/>
-    <hyperlink r:id="rId172" ref="O95"/>
-    <hyperlink r:id="rId173" ref="J96"/>
-    <hyperlink r:id="rId174" ref="O96"/>
-    <hyperlink r:id="rId175" ref="O97"/>
-    <hyperlink r:id="rId176" ref="O98"/>
-    <hyperlink r:id="rId177" ref="J99"/>
-    <hyperlink r:id="rId178" ref="O99"/>
-    <hyperlink r:id="rId179" ref="J100"/>
-    <hyperlink r:id="rId180" ref="O100"/>
-    <hyperlink r:id="rId181" ref="J101"/>
-    <hyperlink r:id="rId182" ref="O101"/>
-    <hyperlink r:id="rId183" ref="J102"/>
-    <hyperlink r:id="rId184" ref="O102"/>
-    <hyperlink r:id="rId185" ref="O103"/>
-    <hyperlink r:id="rId186" ref="J104"/>
-    <hyperlink r:id="rId187" ref="O104"/>
-    <hyperlink r:id="rId188" ref="J105"/>
-    <hyperlink r:id="rId189" ref="O105"/>
-    <hyperlink r:id="rId190" ref="J106"/>
-    <hyperlink r:id="rId191" ref="O106"/>
-    <hyperlink r:id="rId192" ref="J107"/>
-    <hyperlink r:id="rId193" ref="O107"/>
-    <hyperlink r:id="rId194" ref="J108"/>
-    <hyperlink r:id="rId195" ref="O108"/>
-    <hyperlink r:id="rId196" ref="J109"/>
-    <hyperlink r:id="rId197" ref="O109"/>
-    <hyperlink r:id="rId198" ref="J110"/>
-    <hyperlink r:id="rId199" ref="O110"/>
-    <hyperlink r:id="rId200" ref="J111"/>
-    <hyperlink r:id="rId201" ref="O111"/>
-    <hyperlink r:id="rId202" ref="J112"/>
-    <hyperlink r:id="rId203" ref="O112"/>
-    <hyperlink r:id="rId204" ref="J113"/>
-    <hyperlink r:id="rId205" ref="O113"/>
-    <hyperlink r:id="rId206" ref="J114"/>
-    <hyperlink r:id="rId207" ref="O114"/>
-    <hyperlink r:id="rId208" ref="J115"/>
-    <hyperlink r:id="rId209" ref="O115"/>
-    <hyperlink r:id="rId210" ref="J116"/>
-    <hyperlink r:id="rId211" ref="O116"/>
-    <hyperlink r:id="rId212" ref="J117"/>
-    <hyperlink r:id="rId213" ref="O117"/>
-    <hyperlink r:id="rId214" ref="J118"/>
-    <hyperlink r:id="rId215" ref="O118"/>
-    <hyperlink r:id="rId216" ref="J119"/>
-    <hyperlink r:id="rId217" ref="O119"/>
-    <hyperlink r:id="rId218" ref="J120"/>
-    <hyperlink r:id="rId219" ref="O120"/>
-    <hyperlink r:id="rId220" ref="J121"/>
-    <hyperlink r:id="rId221" ref="O121"/>
-    <hyperlink r:id="rId222" ref="J122"/>
-    <hyperlink r:id="rId223" ref="O122"/>
-    <hyperlink r:id="rId224" ref="N123"/>
-    <hyperlink r:id="rId225" ref="J124"/>
-    <hyperlink r:id="rId226" ref="O124"/>
-    <hyperlink r:id="rId227" ref="J125"/>
-    <hyperlink r:id="rId228" ref="O125"/>
-    <hyperlink r:id="rId229" ref="J126"/>
-    <hyperlink r:id="rId230" ref="O126"/>
-    <hyperlink r:id="rId231" ref="J127"/>
-    <hyperlink r:id="rId232" ref="O127"/>
-    <hyperlink r:id="rId233" ref="J128"/>
-    <hyperlink r:id="rId234" ref="O128"/>
-    <hyperlink r:id="rId235" ref="O129"/>
-    <hyperlink r:id="rId236" ref="J130"/>
-    <hyperlink r:id="rId237" ref="O130"/>
-    <hyperlink r:id="rId238" ref="J131"/>
-    <hyperlink r:id="rId239" ref="O131"/>
-    <hyperlink r:id="rId240" ref="J132"/>
-    <hyperlink r:id="rId241" ref="O132"/>
-    <hyperlink r:id="rId242" ref="J133"/>
-    <hyperlink r:id="rId243" ref="O133"/>
-    <hyperlink r:id="rId244" ref="O134"/>
-    <hyperlink r:id="rId245" ref="O135"/>
-    <hyperlink r:id="rId246" ref="J136"/>
-    <hyperlink r:id="rId247" ref="O136"/>
-    <hyperlink r:id="rId248" ref="J137"/>
-    <hyperlink r:id="rId249" ref="O137"/>
-    <hyperlink r:id="rId250" ref="J138"/>
-    <hyperlink r:id="rId251" ref="O138"/>
-    <hyperlink r:id="rId252" ref="J139"/>
-    <hyperlink r:id="rId253" ref="O139"/>
-    <hyperlink r:id="rId254" ref="J140"/>
-    <hyperlink r:id="rId255" ref="O140"/>
-    <hyperlink r:id="rId256" ref="J141"/>
-    <hyperlink r:id="rId257" ref="O141"/>
-    <hyperlink r:id="rId258" ref="J142"/>
-    <hyperlink r:id="rId259" ref="O142"/>
-    <hyperlink r:id="rId260" ref="J143"/>
-    <hyperlink r:id="rId261" ref="O143"/>
-    <hyperlink r:id="rId262" ref="J144"/>
-    <hyperlink r:id="rId263" ref="O144"/>
-    <hyperlink r:id="rId264" ref="J145"/>
-    <hyperlink r:id="rId265" ref="O145"/>
-    <hyperlink r:id="rId266" ref="J146"/>
-    <hyperlink r:id="rId267" ref="O146"/>
-    <hyperlink r:id="rId268" ref="O147"/>
-    <hyperlink r:id="rId269" ref="J148"/>
-    <hyperlink r:id="rId270" ref="O148"/>
-    <hyperlink r:id="rId271" ref="J149"/>
-    <hyperlink r:id="rId272" ref="O149"/>
-    <hyperlink r:id="rId273" ref="J150"/>
-    <hyperlink r:id="rId274" ref="O150"/>
-    <hyperlink r:id="rId275" ref="J151"/>
-    <hyperlink r:id="rId276" ref="O151"/>
-    <hyperlink r:id="rId277" ref="J152"/>
-    <hyperlink r:id="rId278" ref="O152"/>
-    <hyperlink r:id="rId279" ref="J153"/>
-    <hyperlink r:id="rId280" ref="O153"/>
-    <hyperlink r:id="rId281" ref="J154"/>
-    <hyperlink r:id="rId282" ref="O154"/>
-    <hyperlink r:id="rId283" ref="J155"/>
-    <hyperlink r:id="rId284" ref="O155"/>
-    <hyperlink r:id="rId285" ref="O156"/>
-    <hyperlink r:id="rId286" ref="J159"/>
-    <hyperlink r:id="rId287" ref="O159"/>
-    <hyperlink r:id="rId288" ref="O160"/>
-    <hyperlink r:id="rId289" ref="J161"/>
-    <hyperlink r:id="rId290" ref="O161"/>
-    <hyperlink r:id="rId291" ref="J162"/>
-    <hyperlink r:id="rId292" ref="O162"/>
-    <hyperlink r:id="rId293" ref="J163"/>
-    <hyperlink r:id="rId294" ref="O163"/>
-    <hyperlink r:id="rId295" ref="J164"/>
-    <hyperlink r:id="rId296" ref="O164"/>
-    <hyperlink r:id="rId297" ref="J165"/>
-    <hyperlink r:id="rId298" ref="O165"/>
-    <hyperlink r:id="rId299" ref="O166"/>
-    <hyperlink r:id="rId300" ref="J167"/>
-    <hyperlink r:id="rId301" ref="O167"/>
-    <hyperlink r:id="rId302" ref="J168"/>
-    <hyperlink r:id="rId303" ref="O168"/>
-    <hyperlink r:id="rId304" ref="J169"/>
-    <hyperlink r:id="rId305" ref="O169"/>
-    <hyperlink r:id="rId306" ref="J170"/>
-    <hyperlink r:id="rId307" ref="O170"/>
-    <hyperlink r:id="rId308" ref="J171"/>
-    <hyperlink r:id="rId309" ref="O171"/>
-    <hyperlink r:id="rId310" ref="J172"/>
-    <hyperlink r:id="rId311" ref="O172"/>
-    <hyperlink r:id="rId312" ref="J173"/>
-    <hyperlink r:id="rId313" ref="O173"/>
-    <hyperlink r:id="rId314" ref="J174"/>
-    <hyperlink r:id="rId315" ref="O174"/>
-    <hyperlink r:id="rId316" ref="J175"/>
-    <hyperlink r:id="rId317" ref="O175"/>
-    <hyperlink r:id="rId318" ref="J176"/>
-    <hyperlink r:id="rId319" ref="O176"/>
-    <hyperlink r:id="rId320" ref="J177"/>
-    <hyperlink r:id="rId321" ref="O177"/>
-    <hyperlink r:id="rId322" ref="J178"/>
-    <hyperlink r:id="rId323" ref="O178"/>
-    <hyperlink r:id="rId324" ref="J179"/>
-    <hyperlink r:id="rId325" ref="O179"/>
-    <hyperlink r:id="rId326" ref="J180"/>
-    <hyperlink r:id="rId327" ref="O180"/>
-    <hyperlink r:id="rId328" ref="J181"/>
-    <hyperlink r:id="rId329" ref="O181"/>
-    <hyperlink r:id="rId330" ref="J182"/>
-    <hyperlink r:id="rId331" ref="O182"/>
-    <hyperlink r:id="rId332" ref="O183"/>
-    <hyperlink r:id="rId333" ref="J184"/>
-    <hyperlink r:id="rId334" ref="O184"/>
-    <hyperlink r:id="rId335" ref="J185"/>
-    <hyperlink r:id="rId336" ref="O185"/>
-    <hyperlink r:id="rId337" ref="J186"/>
-    <hyperlink r:id="rId338" ref="O186"/>
-    <hyperlink r:id="rId339" ref="J187"/>
-    <hyperlink r:id="rId340" ref="O187"/>
-    <hyperlink r:id="rId341" ref="J188"/>
-    <hyperlink r:id="rId342" ref="O188"/>
-    <hyperlink r:id="rId343" ref="J189"/>
-    <hyperlink r:id="rId344" ref="O189"/>
-    <hyperlink r:id="rId345" ref="J190"/>
-    <hyperlink r:id="rId346" ref="O190"/>
-    <hyperlink r:id="rId347" ref="O191"/>
-    <hyperlink r:id="rId348" ref="J192"/>
-    <hyperlink r:id="rId349" ref="O192"/>
-    <hyperlink r:id="rId350" ref="J193"/>
-    <hyperlink r:id="rId351" ref="O193"/>
-    <hyperlink r:id="rId352" ref="O194"/>
-    <hyperlink r:id="rId353" ref="J195"/>
-    <hyperlink r:id="rId354" ref="O195"/>
-    <hyperlink r:id="rId355" ref="J196"/>
-    <hyperlink r:id="rId356" ref="O196"/>
-    <hyperlink r:id="rId357" ref="O197"/>
-    <hyperlink r:id="rId358" ref="J198"/>
-    <hyperlink r:id="rId359" ref="O198"/>
-    <hyperlink r:id="rId360" ref="O199"/>
-    <hyperlink r:id="rId361" ref="O200"/>
-    <hyperlink r:id="rId362" ref="O201"/>
-    <hyperlink r:id="rId363" ref="O202"/>
-    <hyperlink r:id="rId364" ref="O203"/>
-    <hyperlink r:id="rId365" ref="J204"/>
-    <hyperlink r:id="rId366" ref="O204"/>
-    <hyperlink r:id="rId367" ref="J205"/>
-    <hyperlink r:id="rId368" ref="O205"/>
-    <hyperlink r:id="rId369" ref="J206"/>
-    <hyperlink r:id="rId370" ref="O206"/>
-    <hyperlink r:id="rId371" ref="O207"/>
-    <hyperlink r:id="rId372" ref="J208"/>
-    <hyperlink r:id="rId373" ref="O208"/>
+    <hyperlink r:id="rId74" ref="J42"/>
+    <hyperlink r:id="rId75" ref="O42"/>
+    <hyperlink r:id="rId76" ref="O43"/>
+    <hyperlink r:id="rId77" ref="J44"/>
+    <hyperlink r:id="rId78" ref="O44"/>
+    <hyperlink r:id="rId79" ref="J45"/>
+    <hyperlink r:id="rId80" ref="O45"/>
+    <hyperlink r:id="rId81" ref="J46"/>
+    <hyperlink r:id="rId82" ref="O46"/>
+    <hyperlink r:id="rId83" ref="J47"/>
+    <hyperlink r:id="rId84" ref="O47"/>
+    <hyperlink r:id="rId85" ref="J48"/>
+    <hyperlink r:id="rId86" ref="O48"/>
+    <hyperlink r:id="rId87" ref="J49"/>
+    <hyperlink r:id="rId88" ref="O49"/>
+    <hyperlink r:id="rId89" ref="J50"/>
+    <hyperlink r:id="rId90" ref="O50"/>
+    <hyperlink r:id="rId91" ref="O51"/>
+    <hyperlink r:id="rId92" ref="J52"/>
+    <hyperlink r:id="rId93" ref="O52"/>
+    <hyperlink r:id="rId94" ref="J53"/>
+    <hyperlink r:id="rId95" ref="O53"/>
+    <hyperlink r:id="rId96" ref="J54"/>
+    <hyperlink r:id="rId97" ref="O54"/>
+    <hyperlink r:id="rId98" ref="J55"/>
+    <hyperlink r:id="rId99" ref="O55"/>
+    <hyperlink r:id="rId100" ref="J56"/>
+    <hyperlink r:id="rId101" ref="O56"/>
+    <hyperlink r:id="rId102" ref="J57"/>
+    <hyperlink r:id="rId103" ref="O57"/>
+    <hyperlink r:id="rId104" ref="O58"/>
+    <hyperlink r:id="rId105" ref="O59"/>
+    <hyperlink r:id="rId106" ref="O60"/>
+    <hyperlink r:id="rId107" ref="J61"/>
+    <hyperlink r:id="rId108" ref="O61"/>
+    <hyperlink r:id="rId109" ref="O62"/>
+    <hyperlink r:id="rId110" ref="O63"/>
+    <hyperlink r:id="rId111" ref="J64"/>
+    <hyperlink r:id="rId112" ref="O64"/>
+    <hyperlink r:id="rId113" ref="J65"/>
+    <hyperlink r:id="rId114" ref="O65"/>
+    <hyperlink r:id="rId115" ref="J66"/>
+    <hyperlink r:id="rId116" ref="O66"/>
+    <hyperlink r:id="rId117" ref="J67"/>
+    <hyperlink r:id="rId118" ref="O67"/>
+    <hyperlink r:id="rId119" ref="J68"/>
+    <hyperlink r:id="rId120" ref="O68"/>
+    <hyperlink r:id="rId121" ref="O69"/>
+    <hyperlink r:id="rId122" ref="J70"/>
+    <hyperlink r:id="rId123" ref="O70"/>
+    <hyperlink r:id="rId124" ref="J71"/>
+    <hyperlink r:id="rId125" ref="O71"/>
+    <hyperlink r:id="rId126" ref="J72"/>
+    <hyperlink r:id="rId127" ref="O72"/>
+    <hyperlink r:id="rId128" ref="J73"/>
+    <hyperlink r:id="rId129" ref="O73"/>
+    <hyperlink r:id="rId130" ref="J74"/>
+    <hyperlink r:id="rId131" ref="O74"/>
+    <hyperlink r:id="rId132" ref="J75"/>
+    <hyperlink r:id="rId133" ref="O75"/>
+    <hyperlink r:id="rId134" ref="J76"/>
+    <hyperlink r:id="rId135" ref="O76"/>
+    <hyperlink r:id="rId136" ref="J77"/>
+    <hyperlink r:id="rId137" ref="O77"/>
+    <hyperlink r:id="rId138" ref="J78"/>
+    <hyperlink r:id="rId139" ref="O78"/>
+    <hyperlink r:id="rId140" ref="J79"/>
+    <hyperlink r:id="rId141" ref="O79"/>
+    <hyperlink r:id="rId142" ref="J80"/>
+    <hyperlink r:id="rId143" ref="O80"/>
+    <hyperlink r:id="rId144" ref="O81"/>
+    <hyperlink r:id="rId145" ref="J82"/>
+    <hyperlink r:id="rId146" ref="O82"/>
+    <hyperlink r:id="rId147" ref="J83"/>
+    <hyperlink r:id="rId148" ref="O83"/>
+    <hyperlink r:id="rId149" ref="J84"/>
+    <hyperlink r:id="rId150" ref="O84"/>
+    <hyperlink r:id="rId151" ref="J85"/>
+    <hyperlink r:id="rId152" ref="O85"/>
+    <hyperlink r:id="rId153" ref="O86"/>
+    <hyperlink r:id="rId154" ref="J87"/>
+    <hyperlink r:id="rId155" ref="O87"/>
+    <hyperlink r:id="rId156" ref="J88"/>
+    <hyperlink r:id="rId157" ref="O88"/>
+    <hyperlink r:id="rId158" ref="J89"/>
+    <hyperlink r:id="rId159" ref="O89"/>
+    <hyperlink r:id="rId160" ref="J90"/>
+    <hyperlink r:id="rId161" ref="O90"/>
+    <hyperlink r:id="rId162" ref="J91"/>
+    <hyperlink r:id="rId163" ref="O91"/>
+    <hyperlink r:id="rId164" ref="J92"/>
+    <hyperlink r:id="rId165" ref="O92"/>
+    <hyperlink r:id="rId166" ref="J93"/>
+    <hyperlink r:id="rId167" ref="O93"/>
+    <hyperlink r:id="rId168" ref="J94"/>
+    <hyperlink r:id="rId169" ref="O94"/>
+    <hyperlink r:id="rId170" ref="J95"/>
+    <hyperlink r:id="rId171" ref="O95"/>
+    <hyperlink r:id="rId172" ref="O96"/>
+    <hyperlink r:id="rId173" ref="J97"/>
+    <hyperlink r:id="rId174" ref="O97"/>
+    <hyperlink r:id="rId175" ref="O98"/>
+    <hyperlink r:id="rId176" ref="O99"/>
+    <hyperlink r:id="rId177" ref="J100"/>
+    <hyperlink r:id="rId178" ref="O100"/>
+    <hyperlink r:id="rId179" ref="J101"/>
+    <hyperlink r:id="rId180" ref="O101"/>
+    <hyperlink r:id="rId181" ref="J102"/>
+    <hyperlink r:id="rId182" ref="O102"/>
+    <hyperlink r:id="rId183" ref="J103"/>
+    <hyperlink r:id="rId184" ref="O103"/>
+    <hyperlink r:id="rId185" ref="O104"/>
+    <hyperlink r:id="rId186" ref="J105"/>
+    <hyperlink r:id="rId187" ref="O105"/>
+    <hyperlink r:id="rId188" ref="J106"/>
+    <hyperlink r:id="rId189" ref="O106"/>
+    <hyperlink r:id="rId190" ref="J107"/>
+    <hyperlink r:id="rId191" ref="O107"/>
+    <hyperlink r:id="rId192" ref="J108"/>
+    <hyperlink r:id="rId193" ref="O108"/>
+    <hyperlink r:id="rId194" ref="J109"/>
+    <hyperlink r:id="rId195" ref="O109"/>
+    <hyperlink r:id="rId196" ref="J110"/>
+    <hyperlink r:id="rId197" ref="O110"/>
+    <hyperlink r:id="rId198" ref="J111"/>
+    <hyperlink r:id="rId199" ref="O111"/>
+    <hyperlink r:id="rId200" ref="J112"/>
+    <hyperlink r:id="rId201" ref="O112"/>
+    <hyperlink r:id="rId202" ref="J113"/>
+    <hyperlink r:id="rId203" ref="O113"/>
+    <hyperlink r:id="rId204" ref="J114"/>
+    <hyperlink r:id="rId205" ref="O114"/>
+    <hyperlink r:id="rId206" ref="J115"/>
+    <hyperlink r:id="rId207" ref="O115"/>
+    <hyperlink r:id="rId208" ref="J116"/>
+    <hyperlink r:id="rId209" ref="O116"/>
+    <hyperlink r:id="rId210" ref="J117"/>
+    <hyperlink r:id="rId211" ref="O117"/>
+    <hyperlink r:id="rId212" ref="J118"/>
+    <hyperlink r:id="rId213" ref="O118"/>
+    <hyperlink r:id="rId214" ref="J119"/>
+    <hyperlink r:id="rId215" ref="O119"/>
+    <hyperlink r:id="rId216" ref="J120"/>
+    <hyperlink r:id="rId217" ref="O120"/>
+    <hyperlink r:id="rId218" ref="J121"/>
+    <hyperlink r:id="rId219" ref="O121"/>
+    <hyperlink r:id="rId220" ref="J122"/>
+    <hyperlink r:id="rId221" ref="O122"/>
+    <hyperlink r:id="rId222" ref="J123"/>
+    <hyperlink r:id="rId223" ref="O123"/>
+    <hyperlink r:id="rId224" ref="N124"/>
+    <hyperlink r:id="rId225" ref="J125"/>
+    <hyperlink r:id="rId226" ref="O125"/>
+    <hyperlink r:id="rId227" ref="J126"/>
+    <hyperlink r:id="rId228" ref="O126"/>
+    <hyperlink r:id="rId229" ref="J127"/>
+    <hyperlink r:id="rId230" ref="O127"/>
+    <hyperlink r:id="rId231" ref="J128"/>
+    <hyperlink r:id="rId232" ref="O128"/>
+    <hyperlink r:id="rId233" ref="J129"/>
+    <hyperlink r:id="rId234" ref="O129"/>
+    <hyperlink r:id="rId235" ref="O130"/>
+    <hyperlink r:id="rId236" ref="J131"/>
+    <hyperlink r:id="rId237" ref="O131"/>
+    <hyperlink r:id="rId238" ref="J132"/>
+    <hyperlink r:id="rId239" ref="O132"/>
+    <hyperlink r:id="rId240" ref="J133"/>
+    <hyperlink r:id="rId241" ref="O133"/>
+    <hyperlink r:id="rId242" ref="J134"/>
+    <hyperlink r:id="rId243" ref="O134"/>
+    <hyperlink r:id="rId244" ref="O135"/>
+    <hyperlink r:id="rId245" ref="O136"/>
+    <hyperlink r:id="rId246" ref="J137"/>
+    <hyperlink r:id="rId247" ref="O137"/>
+    <hyperlink r:id="rId248" ref="J138"/>
+    <hyperlink r:id="rId249" ref="O138"/>
+    <hyperlink r:id="rId250" ref="J139"/>
+    <hyperlink r:id="rId251" ref="O139"/>
+    <hyperlink r:id="rId252" ref="J140"/>
+    <hyperlink r:id="rId253" ref="O140"/>
+    <hyperlink r:id="rId254" ref="J141"/>
+    <hyperlink r:id="rId255" ref="O141"/>
+    <hyperlink r:id="rId256" ref="J142"/>
+    <hyperlink r:id="rId257" ref="O142"/>
+    <hyperlink r:id="rId258" ref="J143"/>
+    <hyperlink r:id="rId259" ref="O143"/>
+    <hyperlink r:id="rId260" ref="J144"/>
+    <hyperlink r:id="rId261" ref="O144"/>
+    <hyperlink r:id="rId262" ref="J145"/>
+    <hyperlink r:id="rId263" ref="O145"/>
+    <hyperlink r:id="rId264" ref="J146"/>
+    <hyperlink r:id="rId265" ref="O146"/>
+    <hyperlink r:id="rId266" ref="J147"/>
+    <hyperlink r:id="rId267" ref="O147"/>
+    <hyperlink r:id="rId268" ref="O148"/>
+    <hyperlink r:id="rId269" ref="J149"/>
+    <hyperlink r:id="rId270" ref="O149"/>
+    <hyperlink r:id="rId271" ref="J150"/>
+    <hyperlink r:id="rId272" ref="O150"/>
+    <hyperlink r:id="rId273" ref="J151"/>
+    <hyperlink r:id="rId274" ref="O151"/>
+    <hyperlink r:id="rId275" ref="J152"/>
+    <hyperlink r:id="rId276" ref="O152"/>
+    <hyperlink r:id="rId277" ref="J153"/>
+    <hyperlink r:id="rId278" ref="O153"/>
+    <hyperlink r:id="rId279" ref="J154"/>
+    <hyperlink r:id="rId280" ref="O154"/>
+    <hyperlink r:id="rId281" ref="J155"/>
+    <hyperlink r:id="rId282" ref="O155"/>
+    <hyperlink r:id="rId283" ref="J156"/>
+    <hyperlink r:id="rId284" ref="O156"/>
+    <hyperlink r:id="rId285" ref="O157"/>
+    <hyperlink r:id="rId286" ref="J160"/>
+    <hyperlink r:id="rId287" ref="O160"/>
+    <hyperlink r:id="rId288" ref="O161"/>
+    <hyperlink r:id="rId289" ref="J162"/>
+    <hyperlink r:id="rId290" ref="O162"/>
+    <hyperlink r:id="rId291" ref="J163"/>
+    <hyperlink r:id="rId292" ref="O163"/>
+    <hyperlink r:id="rId293" ref="J164"/>
+    <hyperlink r:id="rId294" ref="O164"/>
+    <hyperlink r:id="rId295" ref="J165"/>
+    <hyperlink r:id="rId296" ref="O165"/>
+    <hyperlink r:id="rId297" ref="J166"/>
+    <hyperlink r:id="rId298" ref="O166"/>
+    <hyperlink r:id="rId299" ref="O167"/>
+    <hyperlink r:id="rId300" ref="J168"/>
+    <hyperlink r:id="rId301" ref="O168"/>
+    <hyperlink r:id="rId302" ref="J169"/>
+    <hyperlink r:id="rId303" ref="O169"/>
+    <hyperlink r:id="rId304" ref="J170"/>
+    <hyperlink r:id="rId305" ref="O170"/>
+    <hyperlink r:id="rId306" ref="J171"/>
+    <hyperlink r:id="rId307" ref="O171"/>
+    <hyperlink r:id="rId308" ref="J172"/>
+    <hyperlink r:id="rId309" ref="O172"/>
+    <hyperlink r:id="rId310" ref="J173"/>
+    <hyperlink r:id="rId311" ref="O173"/>
+    <hyperlink r:id="rId312" ref="J174"/>
+    <hyperlink r:id="rId313" ref="O174"/>
+    <hyperlink r:id="rId314" ref="J175"/>
+    <hyperlink r:id="rId315" ref="O175"/>
+    <hyperlink r:id="rId316" ref="J176"/>
+    <hyperlink r:id="rId317" ref="O176"/>
+    <hyperlink r:id="rId318" ref="J177"/>
+    <hyperlink r:id="rId319" ref="O177"/>
+    <hyperlink r:id="rId320" ref="J178"/>
+    <hyperlink r:id="rId321" ref="O178"/>
+    <hyperlink r:id="rId322" ref="J179"/>
+    <hyperlink r:id="rId323" ref="O179"/>
+    <hyperlink r:id="rId324" ref="J180"/>
+    <hyperlink r:id="rId325" ref="O180"/>
+    <hyperlink r:id="rId326" ref="J181"/>
+    <hyperlink r:id="rId327" ref="O181"/>
+    <hyperlink r:id="rId328" ref="J182"/>
+    <hyperlink r:id="rId329" ref="O182"/>
+    <hyperlink r:id="rId330" ref="J183"/>
+    <hyperlink r:id="rId331" ref="O183"/>
+    <hyperlink r:id="rId332" ref="O184"/>
+    <hyperlink r:id="rId333" ref="J185"/>
+    <hyperlink r:id="rId334" ref="O185"/>
+    <hyperlink r:id="rId335" ref="J186"/>
+    <hyperlink r:id="rId336" ref="O186"/>
+    <hyperlink r:id="rId337" ref="J187"/>
+    <hyperlink r:id="rId338" ref="O187"/>
+    <hyperlink r:id="rId339" ref="J188"/>
+    <hyperlink r:id="rId340" ref="O188"/>
+    <hyperlink r:id="rId341" ref="J189"/>
+    <hyperlink r:id="rId342" ref="O189"/>
+    <hyperlink r:id="rId343" ref="J190"/>
+    <hyperlink r:id="rId344" ref="O190"/>
+    <hyperlink r:id="rId345" ref="J191"/>
+    <hyperlink r:id="rId346" ref="O191"/>
+    <hyperlink r:id="rId347" ref="O192"/>
+    <hyperlink r:id="rId348" ref="J193"/>
+    <hyperlink r:id="rId349" ref="O193"/>
+    <hyperlink r:id="rId350" ref="J194"/>
+    <hyperlink r:id="rId351" ref="O194"/>
+    <hyperlink r:id="rId352" ref="O195"/>
+    <hyperlink r:id="rId353" ref="J196"/>
+    <hyperlink r:id="rId354" ref="O196"/>
+    <hyperlink r:id="rId355" ref="J197"/>
+    <hyperlink r:id="rId356" ref="O197"/>
+    <hyperlink r:id="rId357" ref="O198"/>
+    <hyperlink r:id="rId358" ref="J199"/>
+    <hyperlink r:id="rId359" ref="O199"/>
+    <hyperlink r:id="rId360" ref="O200"/>
+    <hyperlink r:id="rId361" ref="O201"/>
+    <hyperlink r:id="rId362" ref="O202"/>
+    <hyperlink r:id="rId363" ref="O203"/>
+    <hyperlink r:id="rId364" ref="O204"/>
+    <hyperlink r:id="rId365" ref="J205"/>
+    <hyperlink r:id="rId366" ref="O205"/>
+    <hyperlink r:id="rId367" ref="J206"/>
+    <hyperlink r:id="rId368" ref="O206"/>
+    <hyperlink r:id="rId369" ref="J207"/>
+    <hyperlink r:id="rId370" ref="O207"/>
+    <hyperlink r:id="rId371" ref="O208"/>
+    <hyperlink r:id="rId372" ref="J209"/>
+    <hyperlink r:id="rId373" ref="O209"/>
   </hyperlinks>
   <drawing r:id="rId374"/>
 </worksheet>

--- a/documentation-generator/vocab_csv/dpv-pd.xlsx
+++ b/documentation-generator/vocab_csv/dpv-pd.xlsx
@@ -75,7 +75,7 @@
     <t>sc</t>
   </si>
   <si>
-    <t>It is advised to carefully consider indicating data is fully or completely anonymised by determining whether the data by itself or in combination with other data can identify a person. Failing this condition, the data should be denoted as PseudonymisedData. To indicate data is anonymised only for a specified entity (e.g. within an organisation), the concept AnonymisedDataWithinScope (as subclass of PseudonymisedData) should be used instead of AnonymisedData.</t>
+    <t>It is advised to carefully consider indicating data is fully or completely anonymised by determining whether the data by itself or in combination with other data can identify a person. Failing this condition, the data should be denoted as PseudonymisedData. To indicate data is anonymised only for a specified entity (e.g. within an organisation), the concept ContextuallyAnonymisedData (as subclass of PseudonymisedData) should be used instead of AnonymisedData.</t>
   </si>
   <si>
     <t>accepted</t>

--- a/documentation-generator/vocab_csv/dpv-pd.xlsx
+++ b/documentation-generator/vocab_csv/dpv-pd.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="754">
   <si>
     <t>Term</t>
   </si>
@@ -1292,16 +1292,13 @@
     <t>Information about reputation in the public sphere</t>
   </si>
   <si>
-    <t>GeneticData</t>
-  </si>
-  <si>
-    <t>Genetic Data</t>
+    <t>Genetic</t>
   </si>
   <si>
     <t>Information about inherited or acquired genetic characteristics</t>
   </si>
   <si>
-    <t>dpv:HealthData</t>
+    <t>dpv-pd:Health</t>
   </si>
   <si>
     <t>https://www.w3.org/community/dpvcg/wiki/MinutesOfMeeting_20220518</t>
@@ -1382,10 +1379,7 @@
     <t>Information about historical data related to or relevant regarding history or past events</t>
   </si>
   <si>
-    <t>HouseholdData</t>
-  </si>
-  <si>
-    <t>Household Data</t>
+    <t>Household</t>
   </si>
   <si>
     <t>Information about personal or household activities</t>
@@ -1599,9 +1593,6 @@
   </si>
   <si>
     <t>Information about mental health.</t>
-  </si>
-  <si>
-    <t>dpv-pd:Health</t>
   </si>
   <si>
     <t>Name</t>
@@ -1982,16 +1973,16 @@
     <t>Information about public life</t>
   </si>
   <si>
-    <t>PubliclyAvailableSocialMediaData</t>
-  </si>
-  <si>
-    <t>Publicly Available Social Media Data</t>
+    <t>PubliclyAvailableSocialMedia</t>
+  </si>
+  <si>
+    <t>Publicly Available Social Media</t>
   </si>
   <si>
     <t>Information about social media that is publicly available</t>
   </si>
   <si>
-    <t>dpv-pd:SocialMediaData</t>
+    <t>dpv-pd:SocialMedia</t>
   </si>
   <si>
     <t>Purchase</t>
@@ -2178,10 +2169,10 @@
     <t>svd:Social</t>
   </si>
   <si>
-    <t>SocialMediaData</t>
-  </si>
-  <si>
-    <t>Social Media Data</t>
+    <t>SocialMedia</t>
+  </si>
+  <si>
+    <t>Social Media</t>
   </si>
   <si>
     <t>Information about social media</t>
@@ -2344,10 +2335,7 @@
     <t>Information about vehicle license registration</t>
   </si>
   <si>
-    <t>VehicleData</t>
-  </si>
-  <si>
-    <t>Vehicle Data</t>
+    <t>Vehicle</t>
   </si>
   <si>
     <t>Information about vehicles</t>
@@ -2362,19 +2350,19 @@
     <t>Information about vehicle license</t>
   </si>
   <si>
-    <t>dpv-pd:Identifying,dpv-pd:VehicleData</t>
-  </si>
-  <si>
-    <t>VehicleUsageData</t>
-  </si>
-  <si>
-    <t>Vehicle Usage Data</t>
+    <t>dpv-pd:Identifying,dpv-pd:Vehicle</t>
+  </si>
+  <si>
+    <t>VehicleUsage</t>
+  </si>
+  <si>
+    <t>Vehicle Usage</t>
   </si>
   <si>
     <t>Information about usage of vehicles, e.g. driving statistics</t>
   </si>
   <si>
-    <t>dpv-pd:VehicleData,dpv-pd:Behavioral</t>
+    <t>dpv-pd:Vehicle,dpv-pd:Behavioral</t>
   </si>
   <si>
     <t>VoiceCommunicationRecording</t>
@@ -9752,7 +9740,7 @@
   <cols>
     <col customWidth="1" min="1" max="2" width="29.88"/>
     <col customWidth="1" min="3" max="3" width="54.25"/>
-    <col customWidth="1" min="4" max="4" width="35.88"/>
+    <col customWidth="1" min="4" max="4" width="61.63"/>
     <col customWidth="1" min="10" max="10" width="67.5"/>
   </cols>
   <sheetData>
@@ -13990,13 +13978,13 @@
         <v>395</v>
       </c>
       <c r="B86" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C86" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="D86" s="10" t="s">
         <v>397</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>398</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>19</v>
@@ -14017,7 +14005,7 @@
         <v>30</v>
       </c>
       <c r="O86" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
@@ -14035,16 +14023,16 @@
     </row>
     <row r="87">
       <c r="A87" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="C87" s="32" t="s">
         <v>400</v>
       </c>
-      <c r="B87" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="C87" s="32" t="s">
+      <c r="D87" s="10" t="s">
         <v>401</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>402</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>19</v>
@@ -14085,13 +14073,13 @@
     </row>
     <row r="88">
       <c r="A88" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B88" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="C88" s="10" t="s">
         <v>404</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>405</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>170</v>
@@ -14135,13 +14123,13 @@
     </row>
     <row r="89">
       <c r="A89" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B89" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="C89" s="10" t="s">
         <v>407</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>408</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>124</v>
@@ -14185,13 +14173,13 @@
     </row>
     <row r="90">
       <c r="A90" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B90" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="C90" s="31" t="s">
         <v>410</v>
-      </c>
-      <c r="C90" s="31" t="s">
-        <v>411</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>127</v>
@@ -14235,13 +14223,13 @@
     </row>
     <row r="91">
       <c r="A91" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="C91" s="32" t="s">
         <v>412</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="C91" s="32" t="s">
-        <v>413</v>
       </c>
       <c r="D91" s="10" t="s">
         <v>174</v>
@@ -14251,7 +14239,7 @@
       </c>
       <c r="F91" s="12"/>
       <c r="G91" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
@@ -14287,13 +14275,13 @@
     </row>
     <row r="92">
       <c r="A92" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B92" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="C92" s="10" t="s">
         <v>416</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>417</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>174</v>
@@ -14337,13 +14325,13 @@
     </row>
     <row r="93">
       <c r="A93" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B93" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="C93" s="10" t="s">
         <v>419</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>420</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>174</v>
@@ -14387,13 +14375,13 @@
     </row>
     <row r="94">
       <c r="A94" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C94" s="31" t="s">
         <v>421</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="C94" s="31" t="s">
-        <v>422</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>127</v>
@@ -14437,13 +14425,13 @@
     </row>
     <row r="95">
       <c r="A95" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>423</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>424</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>34</v>
@@ -14487,13 +14475,13 @@
     </row>
     <row r="96">
       <c r="A96" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C96" s="10" t="s">
         <v>425</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>427</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>34</v>
@@ -14535,13 +14523,13 @@
     </row>
     <row r="97">
       <c r="A97" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C97" s="10" t="s">
         <v>428</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>430</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>198</v>
@@ -14585,13 +14573,13 @@
     </row>
     <row r="98">
       <c r="A98" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>431</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>433</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>260</v>
@@ -14633,13 +14621,13 @@
     </row>
     <row r="99">
       <c r="A99" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D99" s="10" t="s">
         <v>213</v>
@@ -14681,13 +14669,13 @@
     </row>
     <row r="100">
       <c r="A100" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>159</v>
@@ -14731,13 +14719,13 @@
     </row>
     <row r="101">
       <c r="A101" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D101" s="10" t="s">
         <v>219</v>
@@ -14781,16 +14769,16 @@
     </row>
     <row r="102">
       <c r="A102" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="C102" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="B102" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>442</v>
-      </c>
       <c r="D102" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E102" s="10" t="s">
         <v>19</v>
@@ -14831,13 +14819,13 @@
     </row>
     <row r="103">
       <c r="A103" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C103" s="10" t="s">
         <v>443</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>445</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>351</v>
@@ -14881,13 +14869,13 @@
     </row>
     <row r="104">
       <c r="A104" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D104" s="10" t="s">
         <v>378</v>
@@ -14929,13 +14917,13 @@
     </row>
     <row r="105">
       <c r="A105" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>358</v>
@@ -14979,13 +14967,13 @@
     </row>
     <row r="106">
       <c r="A106" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>201</v>
@@ -15029,13 +15017,13 @@
     </row>
     <row r="107">
       <c r="A107" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>358</v>
@@ -15079,13 +15067,13 @@
     </row>
     <row r="108">
       <c r="A108" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>34</v>
@@ -15129,13 +15117,13 @@
     </row>
     <row r="109">
       <c r="A109" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="C109" s="10" t="s">
         <v>456</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>458</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>178</v>
@@ -15179,13 +15167,13 @@
     </row>
     <row r="110">
       <c r="A110" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>294</v>
@@ -15229,13 +15217,13 @@
     </row>
     <row r="111">
       <c r="A111" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="C111" s="10" t="s">
         <v>461</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>463</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>148</v>
@@ -15279,13 +15267,13 @@
     </row>
     <row r="112">
       <c r="A112" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>159</v>
@@ -15307,7 +15295,7 @@
         <v>44671.0</v>
       </c>
       <c r="M112" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N112" s="10" t="s">
         <v>47</v>
@@ -15331,16 +15319,16 @@
     </row>
     <row r="113">
       <c r="A113" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="C113" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="D113" s="10" t="s">
         <v>468</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>470</v>
       </c>
       <c r="E113" s="10" t="s">
         <v>19</v>
@@ -15381,13 +15369,13 @@
     </row>
     <row r="114">
       <c r="A114" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>297</v>
@@ -15431,13 +15419,13 @@
     </row>
     <row r="115">
       <c r="A115" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C115" s="10" t="s">
         <v>473</v>
-      </c>
-      <c r="B115" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>475</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>145</v>
@@ -15447,7 +15435,7 @@
       </c>
       <c r="F115" s="12"/>
       <c r="G115" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
@@ -15483,13 +15471,13 @@
     </row>
     <row r="116">
       <c r="A116" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="C116" s="10" t="s">
         <v>477</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>479</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>219</v>
@@ -15533,13 +15521,13 @@
     </row>
     <row r="117">
       <c r="A117" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>213</v>
@@ -15549,7 +15537,7 @@
       </c>
       <c r="F117" s="12"/>
       <c r="G117" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
@@ -15585,13 +15573,13 @@
     </row>
     <row r="118">
       <c r="A118" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="C118" s="10" t="s">
         <v>483</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>485</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>178</v>
@@ -15635,13 +15623,13 @@
     </row>
     <row r="119">
       <c r="A119" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="C119" s="10" t="s">
         <v>486</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>488</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>201</v>
@@ -15685,13 +15673,13 @@
     </row>
     <row r="120">
       <c r="A120" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>300</v>
@@ -15735,16 +15723,16 @@
     </row>
     <row r="121">
       <c r="A121" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="C121" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="D121" s="10" t="s">
         <v>492</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>494</v>
       </c>
       <c r="E121" s="10" t="s">
         <v>19</v>
@@ -15785,16 +15773,16 @@
     </row>
     <row r="122">
       <c r="A122" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="C122" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="B122" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>497</v>
-      </c>
       <c r="D122" s="10" t="s">
-        <v>498</v>
+        <v>397</v>
       </c>
       <c r="E122" s="10" t="s">
         <v>19</v>
@@ -15835,16 +15823,16 @@
     </row>
     <row r="123">
       <c r="A123" s="10" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E123" s="10" t="s">
         <v>19</v>
@@ -15885,13 +15873,13 @@
     </row>
     <row r="124">
       <c r="A124" s="10" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>159</v>
@@ -15931,23 +15919,23 @@
     </row>
     <row r="125">
       <c r="A125" s="10" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E125" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F125" s="12"/>
       <c r="G125" s="12" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
@@ -15983,13 +15971,13 @@
     </row>
     <row r="126">
       <c r="A126" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>300</v>
@@ -16033,13 +16021,13 @@
     </row>
     <row r="127">
       <c r="A127" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>358</v>
@@ -16083,13 +16071,13 @@
     </row>
     <row r="128">
       <c r="A128" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>378</v>
@@ -16133,13 +16121,13 @@
     </row>
     <row r="129">
       <c r="A129" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>300</v>
@@ -16183,16 +16171,16 @@
     </row>
     <row r="130">
       <c r="A130" s="10" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E130" s="10" t="s">
         <v>19</v>
@@ -16231,16 +16219,16 @@
     </row>
     <row r="131">
       <c r="A131" s="10" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E131" s="10" t="s">
         <v>19</v>
@@ -16281,13 +16269,13 @@
     </row>
     <row r="132">
       <c r="A132" s="39" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B132" s="40" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C132" s="39" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D132" s="36" t="s">
         <v>121</v>
@@ -16300,7 +16288,7 @@
       <c r="H132" s="34"/>
       <c r="I132" s="34"/>
       <c r="J132" s="17" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="K132" s="35">
         <v>44139.0</v>
@@ -16331,16 +16319,16 @@
     </row>
     <row r="133">
       <c r="A133" s="39" t="s">
+        <v>523</v>
+      </c>
+      <c r="B133" s="40" t="s">
+        <v>524</v>
+      </c>
+      <c r="C133" s="36" t="s">
+        <v>525</v>
+      </c>
+      <c r="D133" s="36" t="s">
         <v>526</v>
-      </c>
-      <c r="B133" s="40" t="s">
-        <v>527</v>
-      </c>
-      <c r="C133" s="36" t="s">
-        <v>528</v>
-      </c>
-      <c r="D133" s="36" t="s">
-        <v>529</v>
       </c>
       <c r="E133" s="10" t="s">
         <v>19</v>
@@ -16350,7 +16338,7 @@
       <c r="H133" s="34"/>
       <c r="I133" s="34"/>
       <c r="J133" s="17" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="K133" s="35">
         <v>44139.0</v>
@@ -16381,16 +16369,16 @@
     </row>
     <row r="134">
       <c r="A134" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="B134" s="40" t="s">
+        <v>529</v>
+      </c>
+      <c r="C134" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="D134" s="36" t="s">
         <v>531</v>
-      </c>
-      <c r="B134" s="40" t="s">
-        <v>532</v>
-      </c>
-      <c r="C134" s="39" t="s">
-        <v>533</v>
-      </c>
-      <c r="D134" s="36" t="s">
-        <v>534</v>
       </c>
       <c r="E134" s="10" t="s">
         <v>19</v>
@@ -16400,7 +16388,7 @@
       <c r="H134" s="34"/>
       <c r="I134" s="34"/>
       <c r="J134" s="17" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="K134" s="35">
         <v>44139.0</v>
@@ -16431,16 +16419,16 @@
     </row>
     <row r="135">
       <c r="A135" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="D135" s="10" t="s">
         <v>536</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>539</v>
       </c>
       <c r="E135" s="10" t="s">
         <v>19</v>
@@ -16479,13 +16467,13 @@
     </row>
     <row r="136">
       <c r="A136" s="10" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>159</v>
@@ -16527,13 +16515,13 @@
     </row>
     <row r="137">
       <c r="A137" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D137" s="10" t="s">
         <v>145</v>
@@ -16577,13 +16565,13 @@
     </row>
     <row r="138">
       <c r="A138" s="10" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D138" s="10" t="s">
         <v>198</v>
@@ -16627,16 +16615,16 @@
     </row>
     <row r="139">
       <c r="A139" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="D139" s="10" t="s">
         <v>548</v>
-      </c>
-      <c r="B139" s="16" t="s">
-        <v>549</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>551</v>
       </c>
       <c r="E139" s="10" t="s">
         <v>19</v>
@@ -16677,13 +16665,13 @@
     </row>
     <row r="140">
       <c r="A140" s="10" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>319</v>
@@ -16727,13 +16715,13 @@
     </row>
     <row r="141">
       <c r="A141" s="10" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>159</v>
@@ -16743,7 +16731,7 @@
       </c>
       <c r="F141" s="12"/>
       <c r="G141" s="12" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
@@ -16779,16 +16767,16 @@
     </row>
     <row r="142">
       <c r="A142" s="10" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>498</v>
+        <v>397</v>
       </c>
       <c r="E142" s="10" t="s">
         <v>19</v>
@@ -16829,16 +16817,16 @@
     </row>
     <row r="143">
       <c r="A143" s="10" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E143" s="10" t="s">
         <v>19</v>
@@ -16879,16 +16867,16 @@
     </row>
     <row r="144">
       <c r="A144" s="10" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E144" s="10" t="s">
         <v>19</v>
@@ -16929,13 +16917,13 @@
     </row>
     <row r="145">
       <c r="A145" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C145" s="31" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>127</v>
@@ -16979,16 +16967,16 @@
     </row>
     <row r="146">
       <c r="A146" s="10" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E146" s="10" t="s">
         <v>19</v>
@@ -17029,23 +17017,23 @@
     </row>
     <row r="147">
       <c r="A147" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="D147" s="10" t="s">
         <v>572</v>
-      </c>
-      <c r="B147" s="16" t="s">
-        <v>573</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>575</v>
       </c>
       <c r="E147" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F147" s="12"/>
       <c r="G147" s="12" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
@@ -17081,16 +17069,16 @@
     </row>
     <row r="148">
       <c r="A148" s="10" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E148" s="10" t="s">
         <v>19</v>
@@ -17111,7 +17099,7 @@
         <v>30</v>
       </c>
       <c r="O148" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P148" s="12"/>
       <c r="Q148" s="12"/>
@@ -17129,13 +17117,13 @@
     </row>
     <row r="149">
       <c r="A149" s="10" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>148</v>
@@ -17145,7 +17133,7 @@
       </c>
       <c r="F149" s="12"/>
       <c r="G149" s="12" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
@@ -17181,13 +17169,13 @@
     </row>
     <row r="150">
       <c r="A150" s="10" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D150" s="10" t="s">
         <v>174</v>
@@ -17231,13 +17219,13 @@
     </row>
     <row r="151">
       <c r="A151" s="10" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D151" s="10" t="s">
         <v>358</v>
@@ -17281,13 +17269,13 @@
     </row>
     <row r="152">
       <c r="A152" s="10" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>371</v>
@@ -17331,13 +17319,13 @@
     </row>
     <row r="153">
       <c r="A153" s="10" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>204</v>
@@ -17381,13 +17369,13 @@
     </row>
     <row r="154">
       <c r="A154" s="10" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>294</v>
@@ -17431,13 +17419,13 @@
     </row>
     <row r="155">
       <c r="A155" s="10" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>294</v>
@@ -17481,13 +17469,13 @@
     </row>
     <row r="156">
       <c r="A156" s="10" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D156" s="10" t="s">
         <v>294</v>
@@ -17531,13 +17519,13 @@
     </row>
     <row r="157">
       <c r="A157" s="10" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D157" s="10" t="s">
         <v>34</v>
@@ -17579,16 +17567,16 @@
     </row>
     <row r="158">
       <c r="A158" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="D158" s="10" t="s">
         <v>603</v>
-      </c>
-      <c r="B158" s="11" t="s">
-        <v>604</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>606</v>
       </c>
       <c r="E158" s="10" t="s">
         <v>19</v>
@@ -17621,16 +17609,16 @@
     </row>
     <row r="159">
       <c r="A159" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E159" s="10" t="s">
         <v>19</v>
@@ -17663,13 +17651,13 @@
     </row>
     <row r="160">
       <c r="A160" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D160" s="10" t="s">
         <v>204</v>
@@ -17713,16 +17701,16 @@
     </row>
     <row r="161">
       <c r="A161" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="D161" s="10" t="s">
         <v>613</v>
-      </c>
-      <c r="B161" s="11" t="s">
-        <v>614</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>615</v>
-      </c>
-      <c r="D161" s="10" t="s">
-        <v>616</v>
       </c>
       <c r="E161" s="10" t="s">
         <v>19</v>
@@ -17761,13 +17749,13 @@
     </row>
     <row r="162">
       <c r="A162" s="10" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B162" s="16" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>219</v>
@@ -17777,7 +17765,7 @@
       </c>
       <c r="F162" s="10"/>
       <c r="G162" s="10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
@@ -17813,13 +17801,13 @@
     </row>
     <row r="163">
       <c r="A163" s="10" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>219</v>
@@ -17863,13 +17851,13 @@
     </row>
     <row r="164">
       <c r="A164" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>339</v>
@@ -17913,13 +17901,13 @@
     </row>
     <row r="165">
       <c r="A165" s="10" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D165" s="10" t="s">
         <v>294</v>
@@ -17963,13 +17951,13 @@
     </row>
     <row r="166">
       <c r="A166" s="10" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D166" s="10" t="s">
         <v>355</v>
@@ -18013,13 +18001,13 @@
     </row>
     <row r="167">
       <c r="A167" s="10" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>145</v>
@@ -18061,16 +18049,16 @@
     </row>
     <row r="168">
       <c r="A168" s="10" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E168" s="10" t="s">
         <v>19</v>
@@ -18111,16 +18099,16 @@
     </row>
     <row r="169">
       <c r="A169" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E169" s="10" t="s">
         <v>19</v>
@@ -18161,13 +18149,13 @@
     </row>
     <row r="170">
       <c r="A170" s="10" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>345</v>
@@ -18211,13 +18199,13 @@
     </row>
     <row r="171">
       <c r="A171" s="10" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>170</v>
@@ -18261,13 +18249,13 @@
     </row>
     <row r="172">
       <c r="A172" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>294</v>
@@ -18311,13 +18299,13 @@
     </row>
     <row r="173">
       <c r="A173" s="10" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>219</v>
@@ -18361,13 +18349,13 @@
     </row>
     <row r="174">
       <c r="A174" s="10" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B174" s="16" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>294</v>
@@ -18411,16 +18399,16 @@
     </row>
     <row r="175">
       <c r="A175" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E175" s="10" t="s">
         <v>19</v>
@@ -18461,13 +18449,13 @@
     </row>
     <row r="176">
       <c r="A176" s="10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D176" s="10" t="s">
         <v>145</v>
@@ -18480,7 +18468,7 @@
       <c r="H176" s="12"/>
       <c r="I176" s="12"/>
       <c r="J176" s="19" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="K176" s="13">
         <v>43795.0</v>
@@ -18490,10 +18478,10 @@
         <v>21</v>
       </c>
       <c r="N176" s="10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="O176" s="14" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="P176" s="12"/>
       <c r="Q176" s="12"/>
@@ -18511,16 +18499,16 @@
     </row>
     <row r="177">
       <c r="A177" s="10" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E177" s="10" t="s">
         <v>19</v>
@@ -18561,13 +18549,13 @@
     </row>
     <row r="178">
       <c r="A178" s="10" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>371</v>
@@ -18611,13 +18599,13 @@
     </row>
     <row r="179">
       <c r="A179" s="10" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>371</v>
@@ -18661,13 +18649,13 @@
     </row>
     <row r="180">
       <c r="A180" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B180" s="16" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C180" s="32" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>300</v>
@@ -18711,13 +18699,13 @@
     </row>
     <row r="181">
       <c r="A181" s="10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D181" s="10" t="s">
         <v>127</v>
@@ -18761,13 +18749,13 @@
     </row>
     <row r="182">
       <c r="A182" s="10" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B182" s="16" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D182" s="10" t="s">
         <v>34</v>
@@ -18811,13 +18799,13 @@
     </row>
     <row r="183">
       <c r="A183" s="10" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B183" s="16" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D183" s="10" t="s">
         <v>330</v>
@@ -18827,7 +18815,7 @@
       </c>
       <c r="F183" s="12"/>
       <c r="G183" s="12" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H183" s="12"/>
       <c r="I183" s="12"/>
@@ -18863,13 +18851,13 @@
     </row>
     <row r="184">
       <c r="A184" s="10" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D184" s="10" t="s">
         <v>330</v>
@@ -18911,13 +18899,13 @@
     </row>
     <row r="185">
       <c r="A185" s="10" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D185" s="10" t="s">
         <v>204</v>
@@ -18961,13 +18949,13 @@
     </row>
     <row r="186">
       <c r="A186" s="10" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D186" s="10" t="s">
         <v>201</v>
@@ -19011,13 +18999,13 @@
     </row>
     <row r="187">
       <c r="A187" s="10" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B187" s="16" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D187" s="10" t="s">
         <v>127</v>
@@ -19061,13 +19049,13 @@
     </row>
     <row r="188">
       <c r="A188" s="10" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D188" s="10" t="s">
         <v>219</v>
@@ -19111,13 +19099,13 @@
     </row>
     <row r="189">
       <c r="A189" s="10" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D189" s="10" t="s">
         <v>319</v>
@@ -19161,16 +19149,16 @@
     </row>
     <row r="190">
       <c r="A190" s="32" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B190" s="44" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C190" s="31" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="E190" s="10" t="s">
         <v>19</v>
@@ -19211,13 +19199,13 @@
     </row>
     <row r="191">
       <c r="A191" s="10" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D191" s="10" t="s">
         <v>34</v>
@@ -19261,16 +19249,16 @@
     </row>
     <row r="192">
       <c r="A192" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="D192" s="10" t="s">
         <v>696</v>
-      </c>
-      <c r="B192" s="11" t="s">
-        <v>697</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>698</v>
-      </c>
-      <c r="D192" s="10" t="s">
-        <v>699</v>
       </c>
       <c r="E192" s="10" t="s">
         <v>19</v>
@@ -19291,7 +19279,7 @@
         <v>30</v>
       </c>
       <c r="O192" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P192" s="12"/>
       <c r="Q192" s="12"/>
@@ -19309,13 +19297,13 @@
     </row>
     <row r="193">
       <c r="A193" s="10" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B193" s="28" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D193" s="10" t="s">
         <v>219</v>
@@ -19359,13 +19347,13 @@
     </row>
     <row r="194">
       <c r="A194" s="10" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D194" s="10" t="s">
         <v>378</v>
@@ -19409,13 +19397,13 @@
     </row>
     <row r="195">
       <c r="A195" s="10" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D195" s="10" t="s">
         <v>170</v>
@@ -19457,16 +19445,16 @@
     </row>
     <row r="196">
       <c r="A196" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="D196" s="10" t="s">
         <v>707</v>
-      </c>
-      <c r="B196" s="11" t="s">
-        <v>708</v>
-      </c>
-      <c r="C196" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="D196" s="10" t="s">
-        <v>710</v>
       </c>
       <c r="E196" s="10" t="s">
         <v>19</v>
@@ -19476,7 +19464,7 @@
       <c r="H196" s="12"/>
       <c r="I196" s="12"/>
       <c r="J196" s="19" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="K196" s="13">
         <v>43795.0</v>
@@ -19486,10 +19474,10 @@
         <v>21</v>
       </c>
       <c r="N196" s="10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="O196" s="14" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="P196" s="12"/>
       <c r="Q196" s="12"/>
@@ -19507,23 +19495,23 @@
     </row>
     <row r="197">
       <c r="A197" s="10" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B197" s="16" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E197" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F197" s="10"/>
       <c r="G197" s="10" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="H197" s="12"/>
       <c r="I197" s="12"/>
@@ -19559,13 +19547,13 @@
     </row>
     <row r="198">
       <c r="A198" s="10" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B198" s="25" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C198" s="45" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D198" s="25" t="s">
         <v>213</v>
@@ -19607,16 +19595,16 @@
     </row>
     <row r="199">
       <c r="A199" s="10" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B199" s="16" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E199" s="10" t="s">
         <v>19</v>
@@ -19657,16 +19645,16 @@
     </row>
     <row r="200">
       <c r="A200" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="D200" s="10" t="s">
         <v>720</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>721</v>
-      </c>
-      <c r="C200" s="10" t="s">
-        <v>722</v>
-      </c>
-      <c r="D200" s="10" t="s">
-        <v>723</v>
       </c>
       <c r="E200" s="10" t="s">
         <v>19</v>
@@ -19705,16 +19693,16 @@
     </row>
     <row r="201">
       <c r="A201" s="10" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E201" s="10" t="s">
         <v>19</v>
@@ -19753,13 +19741,13 @@
     </row>
     <row r="202">
       <c r="A202" s="10" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>159</v>
@@ -19801,16 +19789,16 @@
     </row>
     <row r="203">
       <c r="A203" s="10" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E203" s="10" t="s">
         <v>19</v>
@@ -19849,16 +19837,16 @@
     </row>
     <row r="204">
       <c r="A204" s="10" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="E204" s="10" t="s">
         <v>19</v>
@@ -19897,13 +19885,13 @@
     </row>
     <row r="205">
       <c r="A205" s="10" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D205" s="10" t="s">
         <v>330</v>
@@ -19947,13 +19935,13 @@
     </row>
     <row r="206">
       <c r="A206" s="10" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B206" s="16" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D206" s="10" t="s">
         <v>330</v>
@@ -19997,13 +19985,13 @@
     </row>
     <row r="207">
       <c r="A207" s="10" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D207" s="10" t="s">
         <v>127</v>
@@ -20047,13 +20035,13 @@
     </row>
     <row r="208">
       <c r="A208" s="10" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="D208" s="10" t="s">
         <v>294</v>
@@ -20095,13 +20083,13 @@
     </row>
     <row r="209">
       <c r="A209" s="10" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B209" s="16" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D209" s="10" t="s">
         <v>294</v>
@@ -20148,7 +20136,7 @@
     </row>
     <row r="211">
       <c r="A211" s="10" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B211" s="45"/>
       <c r="C211" s="25"/>
@@ -20182,7 +20170,7 @@
     </row>
     <row r="212">
       <c r="A212" s="10" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B212" s="25"/>
       <c r="C212" s="47"/>
@@ -20216,7 +20204,7 @@
     </row>
     <row r="213">
       <c r="A213" s="10" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B213" s="47"/>
       <c r="C213" s="25"/>
@@ -20250,7 +20238,7 @@
     </row>
     <row r="214">
       <c r="A214" s="10" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B214" s="28"/>
       <c r="C214" s="12"/>
@@ -20284,7 +20272,7 @@
     </row>
     <row r="215">
       <c r="A215" s="10" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B215" s="28"/>
       <c r="C215" s="12"/>
@@ -20321,7 +20309,7 @@
     </row>
     <row r="217">
       <c r="A217" s="10" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B217" s="28"/>
     </row>
